--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB13EB3-BC6C-4A51-8938-1ABD5AA311C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663A440-00B6-4C0F-8035-9F521999DF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
   <si>
     <t>Marca</t>
   </si>
@@ -43,28 +43,13 @@
     <t>Acura</t>
   </si>
   <si>
-    <t>Agrale</t>
-  </si>
-  <si>
-    <t>Alfa Romeo</t>
-  </si>
-  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
     <t>Legend 3.2/3.5</t>
   </si>
   <si>
-    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
-  </si>
-  <si>
-    <t>145 Elegant 1.7/1.8 16V</t>
-  </si>
-  <si>
-    <t>145 Elegant 2.0 16V</t>
+    <t>NSX 3.0</t>
   </si>
   <si>
     <t>038003-2</t>
@@ -73,13 +58,7 @@
     <t>038002-4</t>
   </si>
   <si>
-    <t>060001-6</t>
-  </si>
-  <si>
-    <t>006009-7</t>
-  </si>
-  <si>
-    <t>006001-1</t>
+    <t>038001-6</t>
   </si>
   <si>
     <t>1992</t>
@@ -94,19 +73,19 @@
     <t>1997</t>
   </si>
   <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>1999</t>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
   </si>
   <si>
     <t>Gasolina</t>
-  </si>
-  <si>
-    <t>Diesel</t>
   </si>
 </sst>
 </file>
@@ -165,13 +144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,21 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -515,243 +490,303 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>11097</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10366</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>25397</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>22580</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>19084</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>14802</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>14219</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>14219</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>14219</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>14219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
-        <v>11120</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>40991</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>39550</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>36538</v>
+      </c>
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10387</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2">
-        <v>14248</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>14248</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>48348</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>44601</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="D15">
+        <v>33397</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2">
-        <v>43449</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2">
-        <v>27043</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>21667</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="D16">
+        <v>33397</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="2">
-        <v>21690</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="2">
-        <v>17716</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
+      <c r="F16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B663A440-00B6-4C0F-8035-9F521999DF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9480D6-0F33-4136-8D4F-23E3FFA2D9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
   <si>
     <t>Marca</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Acura</t>
   </si>
   <si>
+    <t>Agrale</t>
+  </si>
+  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>NSX 3.0</t>
   </si>
   <si>
+    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>038001-6</t>
   </si>
   <si>
+    <t>060001-6</t>
+  </si>
+  <si>
     <t>1992</t>
   </si>
   <si>
@@ -85,7 +94,13 @@
     <t>1993</t>
   </si>
   <si>
+    <t>2007</t>
+  </si>
+  <si>
     <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Diesel</t>
   </si>
 </sst>
 </file>
@@ -453,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
@@ -462,7 +477,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
@@ -494,19 +509,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>11097</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -514,19 +529,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>10366</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -534,19 +549,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>25397</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -554,19 +569,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>22580</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -574,19 +589,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>19084</v>
+        <v>21233</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,19 +609,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>14802</v>
+        <v>19084</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,19 +629,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8">
-        <v>14219</v>
+        <v>18267</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -634,19 +649,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>14219</v>
+        <v>16282</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -654,19 +669,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>14219</v>
+        <v>14802</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,19 +689,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>14219</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -694,19 +709,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>40991</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -714,19 +729,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>39550</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -734,19 +749,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>36538</v>
+        <v>38236</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -754,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>33397</v>
+        <v>36538</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -774,19 +789,39 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>33397</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>48251</v>
+      </c>
+      <c r="E17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9480D6-0F33-4136-8D4F-23E3FFA2D9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="103">
   <si>
     <t>Marca</t>
   </si>
@@ -46,6 +40,12 @@
     <t>Agrale</t>
   </si>
   <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AM Gen</t>
+  </si>
+  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
@@ -58,6 +58,84 @@
     <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
   </si>
   <si>
+    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8  CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8 CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Esc. 3.8 TDI Die.Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 3.8 TDI Die. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Microbus 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 50 2.8 140cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Open-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Wagon 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>DB12 Coupe 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB12 Volante 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB9 Coupe 6.0 V12 510cv</t>
+  </si>
+  <si>
+    <t>DB9 Volante 6.0 V12 470cv</t>
+  </si>
+  <si>
+    <t>DBS Coupe 5.2 V12 725cv</t>
+  </si>
+  <si>
+    <t>DBX 4.0 V8 550cv</t>
+  </si>
+  <si>
+    <t>DBX707 4.0 V8 707cv</t>
+  </si>
+  <si>
+    <t>Rapide 6.0 V12 477cv</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
@@ -70,6 +148,72 @@
     <t>060001-6</t>
   </si>
   <si>
+    <t>060003-2</t>
+  </si>
+  <si>
+    <t>060004-0</t>
+  </si>
+  <si>
+    <t>060005-9</t>
+  </si>
+  <si>
+    <t>060006-7</t>
+  </si>
+  <si>
+    <t>060008-3</t>
+  </si>
+  <si>
+    <t>060007-5</t>
+  </si>
+  <si>
+    <t>060014-8</t>
+  </si>
+  <si>
+    <t>060010-5</t>
+  </si>
+  <si>
+    <t>060011-3</t>
+  </si>
+  <si>
+    <t>060009-1</t>
+  </si>
+  <si>
+    <t>060013-0</t>
+  </si>
+  <si>
+    <t>060012-1</t>
+  </si>
+  <si>
+    <t>060016-4</t>
+  </si>
+  <si>
+    <t>060015-6</t>
+  </si>
+  <si>
+    <t>060002-4</t>
+  </si>
+  <si>
+    <t>037001-0</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t>006002-0</t>
+  </si>
+  <si>
+    <t>085018-7</t>
+  </si>
+  <si>
+    <t>037002-9</t>
+  </si>
+  <si>
+    <t>037003-7</t>
+  </si>
+  <si>
     <t>1992</t>
   </si>
   <si>
@@ -97,17 +241,95 @@
     <t>2007</t>
   </si>
   <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
     <t>Gasolina</t>
   </si>
   <si>
     <t>Diesel</t>
+  </si>
+  <si>
+    <t>KM Diesel</t>
+  </si>
+  <si>
+    <t>KM Gasolina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,21 +392,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +436,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,7 +470,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -291,10 +504,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -467,24 +679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,324 +706,2984 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>11097</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>10366</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>25397</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D5">
         <v>22580</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>21233</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>19084</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>18267</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>16282</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>14802</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>14219</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>40991</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>39550</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>38236</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>36538</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>33397</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>48251</v>
       </c>
       <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>44511</v>
+      </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>43362</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>36756</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>108542</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>102457</v>
+      </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>94808</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <v>92495</v>
+      </c>
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>77133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>64732</v>
+      </c>
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
+        <v>50855</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>45520</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>118402</v>
+      </c>
+      <c r="E29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>109313</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>105835</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>98655</v>
+      </c>
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33">
+        <v>79141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34">
+        <v>67803</v>
+      </c>
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35">
+        <v>56957</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>52227</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37">
+        <v>49774</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38">
+        <v>109984</v>
+      </c>
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39">
+        <v>102929</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>95786</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41">
+        <v>90235</v>
+      </c>
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>76651</v>
+      </c>
+      <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>61576</v>
+      </c>
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>52512</v>
+      </c>
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="D45">
+        <v>47788</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>123530</v>
+      </c>
+      <c r="E46" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>116892</v>
+      </c>
+      <c r="E47" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>110141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>107454</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50">
+        <v>87847</v>
+      </c>
+      <c r="E50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>69207</v>
+      </c>
+      <c r="E51" t="s">
+        <v>83</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52">
+        <v>60165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>84</v>
+      </c>
+      <c r="F52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53">
+        <v>57040</v>
+      </c>
+      <c r="E53" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54">
+        <v>342477</v>
+      </c>
+      <c r="E54" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55">
+        <v>323094</v>
+      </c>
+      <c r="E55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56">
+        <v>309449</v>
+      </c>
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57">
+        <v>232839</v>
+      </c>
+      <c r="E57" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58">
+        <v>196563</v>
+      </c>
+      <c r="E58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>151051</v>
+      </c>
+      <c r="E59" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>130818</v>
+      </c>
+      <c r="E60" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61">
+        <v>127345</v>
+      </c>
+      <c r="E61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62">
+        <v>119707</v>
+      </c>
+      <c r="E62" t="s">
+        <v>79</v>
+      </c>
+      <c r="F62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63">
+        <v>109489</v>
+      </c>
+      <c r="E63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64">
+        <v>102295</v>
+      </c>
+      <c r="E64" t="s">
+        <v>81</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <v>89100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>71438</v>
+      </c>
+      <c r="E66" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67">
+        <v>66077</v>
+      </c>
+      <c r="E67" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68">
+        <v>62211</v>
+      </c>
+      <c r="E68" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <v>319147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70">
+        <v>295759</v>
+      </c>
+      <c r="E70" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71">
+        <v>272470</v>
+      </c>
+      <c r="E71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72">
+        <v>218838</v>
+      </c>
+      <c r="E72" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73">
+        <v>182819</v>
+      </c>
+      <c r="E73" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74">
+        <v>143191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75">
+        <v>128066</v>
+      </c>
+      <c r="E75" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76">
+        <v>117176</v>
+      </c>
+      <c r="E76" t="s">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77">
+        <v>107701</v>
+      </c>
+      <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78">
+        <v>99063</v>
+      </c>
+      <c r="E78" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79">
+        <v>92339</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80">
+        <v>85809</v>
+      </c>
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81">
+        <v>65829</v>
+      </c>
+      <c r="E81" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82">
+        <v>57637</v>
+      </c>
+      <c r="E82" t="s">
+        <v>84</v>
+      </c>
+      <c r="F82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83">
+        <v>54453</v>
+      </c>
+      <c r="E83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84">
+        <v>49790</v>
+      </c>
+      <c r="E84" t="s">
+        <v>74</v>
+      </c>
+      <c r="F84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>871250</v>
+      </c>
+      <c r="E85" t="s">
+        <v>93</v>
+      </c>
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86">
+        <v>720239</v>
+      </c>
+      <c r="E86" t="s">
+        <v>94</v>
+      </c>
+      <c r="F86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>668533</v>
+      </c>
+      <c r="E87" t="s">
+        <v>95</v>
+      </c>
+      <c r="F87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88">
+        <v>625747</v>
+      </c>
+      <c r="E88" t="s">
+        <v>96</v>
+      </c>
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>51</v>
+      </c>
+      <c r="D89">
+        <v>395995</v>
+      </c>
+      <c r="E89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>51</v>
+      </c>
+      <c r="D90">
+        <v>370657</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91">
+        <v>767261</v>
+      </c>
+      <c r="E91" t="s">
+        <v>93</v>
+      </c>
+      <c r="F91" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92">
+        <v>673977</v>
+      </c>
+      <c r="E92" t="s">
+        <v>94</v>
+      </c>
+      <c r="F92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
+      </c>
+      <c r="D93">
+        <v>647026</v>
+      </c>
+      <c r="E93" t="s">
+        <v>95</v>
+      </c>
+      <c r="F93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D94">
+        <v>593239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>96</v>
+      </c>
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95">
+        <v>393070</v>
+      </c>
+      <c r="E95" t="s">
+        <v>86</v>
+      </c>
+      <c r="F95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96">
+        <v>367151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97">
+        <v>690496</v>
+      </c>
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+      <c r="F97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>54</v>
+      </c>
+      <c r="D98">
+        <v>568060</v>
+      </c>
+      <c r="E98" t="s">
+        <v>94</v>
+      </c>
+      <c r="F98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
+      <c r="D99">
+        <v>518150</v>
+      </c>
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+      <c r="F99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>54</v>
+      </c>
+      <c r="D100">
+        <v>484471</v>
+      </c>
+      <c r="E100" t="s">
+        <v>96</v>
+      </c>
+      <c r="F100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101">
+        <v>621203</v>
+      </c>
+      <c r="E101" t="s">
+        <v>93</v>
+      </c>
+      <c r="F101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102">
+        <v>516464</v>
+      </c>
+      <c r="E102" t="s">
+        <v>94</v>
+      </c>
+      <c r="F102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103">
+        <v>477859</v>
+      </c>
+      <c r="E103" t="s">
+        <v>95</v>
+      </c>
+      <c r="F103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104">
+        <v>446883</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
         <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>56</v>
+      </c>
+      <c r="D105">
+        <v>639491</v>
+      </c>
+      <c r="E105" t="s">
+        <v>93</v>
+      </c>
+      <c r="F105" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>56</v>
+      </c>
+      <c r="D106">
+        <v>531677</v>
+      </c>
+      <c r="E106" t="s">
+        <v>94</v>
+      </c>
+      <c r="F106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>56</v>
+      </c>
+      <c r="D107">
+        <v>489059</v>
+      </c>
+      <c r="E107" t="s">
+        <v>95</v>
+      </c>
+      <c r="F107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>56</v>
+      </c>
+      <c r="D108">
+        <v>456781</v>
+      </c>
+      <c r="E108" t="s">
+        <v>96</v>
+      </c>
+      <c r="F108" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>57</v>
+      </c>
+      <c r="D109">
+        <v>573663</v>
+      </c>
+      <c r="E109" t="s">
+        <v>93</v>
+      </c>
+      <c r="F109" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>57</v>
+      </c>
+      <c r="D110">
+        <v>462508</v>
+      </c>
+      <c r="E110" t="s">
+        <v>94</v>
+      </c>
+      <c r="F110" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>57</v>
+      </c>
+      <c r="D111">
+        <v>434991</v>
+      </c>
+      <c r="E111" t="s">
+        <v>95</v>
+      </c>
+      <c r="F111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>57</v>
+      </c>
+      <c r="D112">
+        <v>406281</v>
+      </c>
+      <c r="E112" t="s">
+        <v>96</v>
+      </c>
+      <c r="F112" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113">
+        <v>72391</v>
+      </c>
+      <c r="E113" t="s">
+        <v>82</v>
+      </c>
+      <c r="F113" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114">
+        <v>65190</v>
+      </c>
+      <c r="E114" t="s">
+        <v>83</v>
+      </c>
+      <c r="F114" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115">
+        <v>55471</v>
+      </c>
+      <c r="E115" t="s">
+        <v>84</v>
+      </c>
+      <c r="F115" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>58</v>
+      </c>
+      <c r="D116">
+        <v>51567</v>
+      </c>
+      <c r="E116" t="s">
+        <v>85</v>
+      </c>
+      <c r="F116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117">
+        <v>426859</v>
+      </c>
+      <c r="E117" t="s">
+        <v>97</v>
+      </c>
+      <c r="F117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118">
+        <v>21558</v>
+      </c>
+      <c r="E118" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>60</v>
+      </c>
+      <c r="D119">
+        <v>14581</v>
+      </c>
+      <c r="E119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F119" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>30</v>
+      </c>
+      <c r="C120" t="s">
+        <v>61</v>
+      </c>
+      <c r="D120">
+        <v>21581</v>
+      </c>
+      <c r="E120" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>61</v>
+      </c>
+      <c r="D121">
+        <v>17680</v>
+      </c>
+      <c r="E121" t="s">
+        <v>69</v>
+      </c>
+      <c r="F121" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>61</v>
+      </c>
+      <c r="D122">
+        <v>17248</v>
+      </c>
+      <c r="E122" t="s">
+        <v>70</v>
+      </c>
+      <c r="F122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123">
+        <v>13550</v>
+      </c>
+      <c r="E123" t="s">
+        <v>71</v>
+      </c>
+      <c r="F123" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124">
+        <v>29872</v>
+      </c>
+      <c r="E124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125">
+        <v>29143</v>
+      </c>
+      <c r="E125" t="s">
+        <v>68</v>
+      </c>
+      <c r="F125" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" t="s">
+        <v>62</v>
+      </c>
+      <c r="D126">
+        <v>23404</v>
+      </c>
+      <c r="E126" t="s">
+        <v>69</v>
+      </c>
+      <c r="F126" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
+        <v>62</v>
+      </c>
+      <c r="D127">
+        <v>22833</v>
+      </c>
+      <c r="E127" t="s">
+        <v>70</v>
+      </c>
+      <c r="F127" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128">
+        <v>3600000</v>
+      </c>
+      <c r="E128" t="s">
+        <v>93</v>
+      </c>
+      <c r="F128" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129">
+        <v>384365</v>
+      </c>
+      <c r="E129" t="s">
+        <v>94</v>
+      </c>
+      <c r="F129" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130">
+        <v>332825</v>
+      </c>
+      <c r="E130" t="s">
+        <v>95</v>
+      </c>
+      <c r="F130" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>64</v>
+      </c>
+      <c r="D131">
+        <v>396648</v>
+      </c>
+      <c r="E131" t="s">
+        <v>97</v>
+      </c>
+      <c r="F131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" t="s">
+        <v>64</v>
+      </c>
+      <c r="D132">
+        <v>351603</v>
+      </c>
+      <c r="E132" t="s">
+        <v>98</v>
+      </c>
+      <c r="F132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>64</v>
+      </c>
+      <c r="D133">
+        <v>294624</v>
+      </c>
+      <c r="E133" t="s">
+        <v>68</v>
+      </c>
+      <c r="F133" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134">
+        <v>453297</v>
+      </c>
+      <c r="E134" t="s">
+        <v>97</v>
+      </c>
+      <c r="F134" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135">
+        <v>401677</v>
+      </c>
+      <c r="E135" t="s">
+        <v>98</v>
+      </c>
+      <c r="F135" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136">
+        <v>348246</v>
+      </c>
+      <c r="E136" t="s">
+        <v>68</v>
+      </c>
+      <c r="F136" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137">
+        <v>453297</v>
+      </c>
+      <c r="E137" t="s">
+        <v>97</v>
+      </c>
+      <c r="F137" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138">
+        <v>401677</v>
+      </c>
+      <c r="E138" t="s">
+        <v>98</v>
+      </c>
+      <c r="F138" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139">
+        <v>348246</v>
+      </c>
+      <c r="E139" t="s">
+        <v>68</v>
+      </c>
+      <c r="F139" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140">
+        <v>453297</v>
+      </c>
+      <c r="E140" t="s">
+        <v>97</v>
+      </c>
+      <c r="F140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141">
+        <v>401677</v>
+      </c>
+      <c r="E141" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142">
+        <v>348246</v>
+      </c>
+      <c r="E142" t="s">
+        <v>68</v>
+      </c>
+      <c r="F142" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143">
+        <v>453297</v>
+      </c>
+      <c r="E143" t="s">
+        <v>97</v>
+      </c>
+      <c r="F143" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144">
+        <v>401677</v>
+      </c>
+      <c r="E144" t="s">
+        <v>98</v>
+      </c>
+      <c r="F144" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>37</v>
+      </c>
+      <c r="C145" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145">
+        <v>348246</v>
+      </c>
+      <c r="E145" t="s">
+        <v>68</v>
+      </c>
+      <c r="F145" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146">
+        <v>453297</v>
+      </c>
+      <c r="E146" t="s">
+        <v>97</v>
+      </c>
+      <c r="F146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147">
+        <v>401677</v>
+      </c>
+      <c r="E147" t="s">
+        <v>98</v>
+      </c>
+      <c r="F147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>38</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148">
+        <v>348246</v>
+      </c>
+      <c r="E148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149">
+        <v>453297</v>
+      </c>
+      <c r="E149" t="s">
+        <v>97</v>
+      </c>
+      <c r="F149" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150">
+        <v>401677</v>
+      </c>
+      <c r="E150" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BA9923-3E0E-473D-8A4F-075F71D9ED2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="127">
   <si>
     <t>Marca</t>
   </si>
@@ -40,6 +46,12 @@
     <t>Agrale</t>
   </si>
   <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AM Gen</t>
+  </si>
+  <si>
     <t>Integra GS 1.8</t>
   </si>
   <si>
@@ -55,6 +67,105 @@
     <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
   </si>
   <si>
+    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 150 2.8 CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8  CD TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 2.8 CS TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Esc. 3.8 TDI Die.Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Escolar 3.8 TDI Die. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 200 Microbus 2.8 TDI Diesel</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CD TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Die. Aut. (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 250 3.8 CS TDI Diesel (E6)</t>
+  </si>
+  <si>
+    <t>MARRUÁ AM 50 2.8 140cv TDI Diesel</t>
+  </si>
+  <si>
+    <t>145 Elegant 1.7/1.8 16V</t>
+  </si>
+  <si>
+    <t>145 Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>145 Quadrifoglio 2.0</t>
+  </si>
+  <si>
+    <t>145 QV</t>
+  </si>
+  <si>
+    <t>147 2.0 16V 148cv 4p Semi-Aut.</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>155 Super</t>
+  </si>
+  <si>
+    <t>156 2.5 V6 24V 190cv 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.0 16V</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.5 V6 24V 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 TS/Sport/Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>164 3.0 V6</t>
+  </si>
+  <si>
+    <t>164 Super V6 24V</t>
+  </si>
+  <si>
+    <t>166 3.0 V6 24V</t>
+  </si>
+  <si>
+    <t>2300 TI/TI-4</t>
+  </si>
+  <si>
+    <t>Spider 2.0/3.0</t>
+  </si>
+  <si>
+    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Open-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Wagon 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
     <t>038003-2</t>
   </si>
   <si>
@@ -67,10 +178,106 @@
     <t>060001-6</t>
   </si>
   <si>
+    <t>060003-2</t>
+  </si>
+  <si>
     <t>060004-0</t>
   </si>
   <si>
-    <t>060003-2</t>
+    <t>060005-9</t>
+  </si>
+  <si>
+    <t>060006-7</t>
+  </si>
+  <si>
+    <t>060008-3</t>
+  </si>
+  <si>
+    <t>060007-5</t>
+  </si>
+  <si>
+    <t>060014-8</t>
+  </si>
+  <si>
+    <t>060010-5</t>
+  </si>
+  <si>
+    <t>060011-3</t>
+  </si>
+  <si>
+    <t>060009-1</t>
+  </si>
+  <si>
+    <t>060013-0</t>
+  </si>
+  <si>
+    <t>060012-1</t>
+  </si>
+  <si>
+    <t>060016-4</t>
+  </si>
+  <si>
+    <t>060015-6</t>
+  </si>
+  <si>
+    <t>060002-4</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t>006002-0</t>
+  </si>
+  <si>
+    <t>006008-9</t>
+  </si>
+  <si>
+    <t>006017-8</t>
+  </si>
+  <si>
+    <t>006003-8</t>
+  </si>
+  <si>
+    <t>006004-6</t>
+  </si>
+  <si>
+    <t>006015-1</t>
+  </si>
+  <si>
+    <t>006014-3</t>
+  </si>
+  <si>
+    <t>006016-0</t>
+  </si>
+  <si>
+    <t>006010-0</t>
+  </si>
+  <si>
+    <t>006005-4</t>
+  </si>
+  <si>
+    <t>006006-2</t>
+  </si>
+  <si>
+    <t>006011-9</t>
+  </si>
+  <si>
+    <t>006013-5</t>
+  </si>
+  <si>
+    <t>006007-0</t>
+  </si>
+  <si>
+    <t>037001-0</t>
+  </si>
+  <si>
+    <t>037002-9</t>
+  </si>
+  <si>
+    <t>037003-7</t>
   </si>
   <si>
     <t>1992</t>
@@ -115,17 +322,92 @@
     <t>2014</t>
   </si>
   <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
     <t>Gasolina</t>
   </si>
   <si>
     <t>Diesel</t>
+  </si>
+  <si>
+    <t>KM Diesel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +470,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +522,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,6 +556,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,9 +591,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,14 +767,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,424 +804,3584 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>11097</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>10366</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>25397</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>22580</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>21233</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>19084</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>18267</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>16282</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D10">
         <v>14802</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>14219</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>40991</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>39550</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>38236</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>36538</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D16">
         <v>33397</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>48251</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>44511</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>43362</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>36756</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="D21">
-        <v>118402</v>
+        <v>108542</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="D22">
         <v>102457</v>
       </c>
       <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23">
+        <v>94808</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>92495</v>
+      </c>
+      <c r="E24" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25">
+        <v>77133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>64732</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>50855</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>45520</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29">
+        <v>118402</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30">
+        <v>109313</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31">
+        <v>105835</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>98655</v>
+      </c>
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>79141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>67803</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>56957</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>52227</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>49774</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>109984</v>
+      </c>
+      <c r="E38" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>102929</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>95786</v>
+      </c>
+      <c r="E40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>98655</v>
+      </c>
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>76651</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>61576</v>
+      </c>
+      <c r="E43" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>52512</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>47788</v>
+      </c>
+      <c r="E45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>123530</v>
+      </c>
+      <c r="E46" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>116892</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>110141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>107454</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>87847</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>69207</v>
+      </c>
+      <c r="E51" t="s">
+        <v>103</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52">
+        <v>60165</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53">
+        <v>57040</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>342477</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>323094</v>
+      </c>
+      <c r="E55" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>309449</v>
+      </c>
+      <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>232839</v>
+      </c>
+      <c r="E57" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>196563</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>151051</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>130818</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>127345</v>
+      </c>
+      <c r="E61" t="s">
+        <v>98</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>119707</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>109489</v>
+      </c>
+      <c r="E63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>102295</v>
+      </c>
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D65">
+        <v>89100</v>
+      </c>
+      <c r="E65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>71438</v>
+      </c>
+      <c r="E66" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67">
+        <v>66077</v>
+      </c>
+      <c r="E67" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>62211</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>319147</v>
+      </c>
+      <c r="E69" t="s">
+        <v>106</v>
+      </c>
+      <c r="F69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" t="s">
+        <v>57</v>
+      </c>
+      <c r="D70">
+        <v>295759</v>
+      </c>
+      <c r="E70" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71">
+        <v>272470</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="s">
+        <v>57</v>
+      </c>
+      <c r="D72">
+        <v>218838</v>
+      </c>
+      <c r="E72" t="s">
+        <v>109</v>
+      </c>
+      <c r="F72" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73">
+        <v>182819</v>
+      </c>
+      <c r="E73" t="s">
+        <v>110</v>
+      </c>
+      <c r="F73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74">
+        <v>143191</v>
+      </c>
+      <c r="E74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>57</v>
+      </c>
+      <c r="D75">
+        <v>128066</v>
+      </c>
+      <c r="E75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76">
+        <v>117176</v>
+      </c>
+      <c r="E76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>107701</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <v>99063</v>
+      </c>
+      <c r="E78" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>92339</v>
+      </c>
+      <c r="E79" t="s">
+        <v>101</v>
+      </c>
+      <c r="F79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>85809</v>
+      </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D81">
+        <v>65829</v>
+      </c>
+      <c r="E81" t="s">
+        <v>103</v>
+      </c>
+      <c r="F81" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D82">
+        <v>57637</v>
+      </c>
+      <c r="E82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83">
+        <v>54453</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>57</v>
+      </c>
+      <c r="D84">
+        <v>49790</v>
+      </c>
+      <c r="E84" t="s">
+        <v>94</v>
+      </c>
+      <c r="F84" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85">
+        <v>871250</v>
+      </c>
+      <c r="E85" t="s">
+        <v>113</v>
+      </c>
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>20</v>
+      </c>
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86">
+        <v>720239</v>
+      </c>
+      <c r="E86" t="s">
+        <v>114</v>
+      </c>
+      <c r="F86" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <v>668533</v>
+      </c>
+      <c r="E87" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88">
+        <v>625747</v>
+      </c>
+      <c r="E88" t="s">
+        <v>116</v>
+      </c>
+      <c r="F88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89">
+        <v>395995</v>
+      </c>
+      <c r="E89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F89" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90">
+        <v>370657</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91">
+        <v>767261</v>
+      </c>
+      <c r="E91" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92">
+        <v>673977</v>
+      </c>
+      <c r="E92" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93">
+        <v>647026</v>
+      </c>
+      <c r="E93" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94">
+        <v>593239</v>
+      </c>
+      <c r="E94" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95">
+        <v>393070</v>
+      </c>
+      <c r="E95" t="s">
+        <v>106</v>
+      </c>
+      <c r="F95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96">
+        <v>367151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>690496</v>
+      </c>
+      <c r="E97" t="s">
+        <v>113</v>
+      </c>
+      <c r="F97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D98">
+        <v>568060</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D99">
+        <v>518150</v>
+      </c>
+      <c r="E99" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>62</v>
+      </c>
+      <c r="D100">
+        <v>484471</v>
+      </c>
+      <c r="E100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>63</v>
+      </c>
+      <c r="D101">
+        <v>621203</v>
+      </c>
+      <c r="E101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102" t="s">
+        <v>63</v>
+      </c>
+      <c r="D102">
+        <v>516464</v>
+      </c>
+      <c r="E102" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>63</v>
+      </c>
+      <c r="D103">
+        <v>477859</v>
+      </c>
+      <c r="E103" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104">
+        <v>446883</v>
+      </c>
+      <c r="E104" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105">
+        <v>639491</v>
+      </c>
+      <c r="E105" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106">
+        <v>531677</v>
+      </c>
+      <c r="E106" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107">
+        <v>489059</v>
+      </c>
+      <c r="E107" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108">
+        <v>456781</v>
+      </c>
+      <c r="E108" t="s">
+        <v>116</v>
+      </c>
+      <c r="F108" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109">
+        <v>573663</v>
+      </c>
+      <c r="E109" t="s">
+        <v>113</v>
+      </c>
+      <c r="F109" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110">
+        <v>462508</v>
+      </c>
+      <c r="E110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111">
+        <v>434991</v>
+      </c>
+      <c r="E111" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112">
+        <v>406281</v>
+      </c>
+      <c r="E112" t="s">
+        <v>116</v>
+      </c>
+      <c r="F112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113">
+        <v>72391</v>
+      </c>
+      <c r="E113" t="s">
+        <v>102</v>
+      </c>
+      <c r="F113" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114" t="s">
+        <v>66</v>
+      </c>
+      <c r="D114">
+        <v>65190</v>
+      </c>
+      <c r="E114" t="s">
+        <v>103</v>
+      </c>
+      <c r="F114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D115">
+        <v>55471</v>
+      </c>
+      <c r="E115" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116">
+        <v>51567</v>
+      </c>
+      <c r="E116" t="s">
+        <v>105</v>
+      </c>
+      <c r="F116" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117">
+        <v>27313</v>
+      </c>
+      <c r="E117" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118">
+        <v>21558</v>
+      </c>
+      <c r="E118" t="s">
+        <v>88</v>
+      </c>
+      <c r="F118" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119">
+        <v>14581</v>
+      </c>
+      <c r="E119" t="s">
+        <v>89</v>
+      </c>
+      <c r="F119" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120">
+        <v>13265</v>
+      </c>
+      <c r="E120" t="s">
+        <v>90</v>
+      </c>
+      <c r="F120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121">
+        <v>21581</v>
+      </c>
+      <c r="E121" t="s">
+        <v>88</v>
+      </c>
+      <c r="F121" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122">
+        <v>17680</v>
+      </c>
+      <c r="E122" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>8</v>
+      </c>
+      <c r="B123" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123">
+        <v>17248</v>
+      </c>
+      <c r="E123" t="s">
+        <v>90</v>
+      </c>
+      <c r="F123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124">
+        <v>13550</v>
+      </c>
+      <c r="E124" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>8</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" t="s">
+        <v>69</v>
+      </c>
+      <c r="D125">
+        <v>29872</v>
+      </c>
+      <c r="E125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126">
+        <v>29143</v>
+      </c>
+      <c r="E126" t="s">
+        <v>88</v>
+      </c>
+      <c r="F126" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
+        <v>69</v>
+      </c>
+      <c r="D127">
+        <v>23404</v>
+      </c>
+      <c r="E127" t="s">
+        <v>89</v>
+      </c>
+      <c r="F127" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>8</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>69</v>
+      </c>
+      <c r="D128">
+        <v>22833</v>
+      </c>
+      <c r="E128" t="s">
+        <v>90</v>
+      </c>
+      <c r="F128" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" t="s">
         <v>32</v>
       </c>
-      <c r="F22" t="s">
+      <c r="C129" t="s">
+        <v>70</v>
+      </c>
+      <c r="D129">
+        <v>22449</v>
+      </c>
+      <c r="E129" t="s">
+        <v>88</v>
+      </c>
+      <c r="F129" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+      <c r="C130" t="s">
+        <v>70</v>
+      </c>
+      <c r="D130">
+        <v>18647</v>
+      </c>
+      <c r="E130" t="s">
+        <v>89</v>
+      </c>
+      <c r="F130" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>32</v>
+      </c>
+      <c r="C131" t="s">
+        <v>70</v>
+      </c>
+      <c r="D131">
+        <v>18192</v>
+      </c>
+      <c r="E131" t="s">
+        <v>90</v>
+      </c>
+      <c r="F131" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" t="s">
+        <v>71</v>
+      </c>
+      <c r="D132">
+        <v>92142</v>
+      </c>
+      <c r="E132" t="s">
+        <v>96</v>
+      </c>
+      <c r="F132" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>8</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133">
+        <v>89894</v>
+      </c>
+      <c r="E133" t="s">
+        <v>97</v>
+      </c>
+      <c r="F133" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>71</v>
+      </c>
+      <c r="D134">
+        <v>87701</v>
+      </c>
+      <c r="E134" t="s">
+        <v>118</v>
+      </c>
+      <c r="F134" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>8</v>
+      </c>
+      <c r="B135" t="s">
         <v>34</v>
+      </c>
+      <c r="C135" t="s">
+        <v>72</v>
+      </c>
+      <c r="D135">
+        <v>19511</v>
+      </c>
+      <c r="E135" t="s">
+        <v>89</v>
+      </c>
+      <c r="F135" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C136" t="s">
+        <v>72</v>
+      </c>
+      <c r="D136">
+        <v>18466</v>
+      </c>
+      <c r="E136" t="s">
+        <v>90</v>
+      </c>
+      <c r="F136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>8</v>
+      </c>
+      <c r="B137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C137" t="s">
+        <v>72</v>
+      </c>
+      <c r="D137">
+        <v>15931</v>
+      </c>
+      <c r="E137" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>73</v>
+      </c>
+      <c r="D138">
+        <v>24925</v>
+      </c>
+      <c r="E138" t="s">
+        <v>89</v>
+      </c>
+      <c r="F138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>73</v>
+      </c>
+      <c r="D139">
+        <v>24317</v>
+      </c>
+      <c r="E139" t="s">
+        <v>90</v>
+      </c>
+      <c r="F139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>8</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>73</v>
+      </c>
+      <c r="D140">
+        <v>19754</v>
+      </c>
+      <c r="E140" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>8</v>
+      </c>
+      <c r="B141" t="s">
+        <v>36</v>
+      </c>
+      <c r="C141" t="s">
+        <v>74</v>
+      </c>
+      <c r="D141">
+        <v>104853</v>
+      </c>
+      <c r="E141" t="s">
+        <v>118</v>
+      </c>
+      <c r="F141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" t="s">
+        <v>36</v>
+      </c>
+      <c r="C142" t="s">
+        <v>74</v>
+      </c>
+      <c r="D142">
+        <v>32424</v>
+      </c>
+      <c r="E142" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>8</v>
+      </c>
+      <c r="B143" t="s">
+        <v>37</v>
+      </c>
+      <c r="C143" t="s">
+        <v>75</v>
+      </c>
+      <c r="D143">
+        <v>49978</v>
+      </c>
+      <c r="E143" t="s">
+        <v>119</v>
+      </c>
+      <c r="F143" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>8</v>
+      </c>
+      <c r="B144" t="s">
+        <v>37</v>
+      </c>
+      <c r="C144" t="s">
+        <v>75</v>
+      </c>
+      <c r="D144">
+        <v>45101</v>
+      </c>
+      <c r="E144" t="s">
+        <v>120</v>
+      </c>
+      <c r="F144" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>8</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" t="s">
+        <v>76</v>
+      </c>
+      <c r="D145">
+        <v>74355</v>
+      </c>
+      <c r="E145" t="s">
+        <v>97</v>
+      </c>
+      <c r="F145" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>8</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146" t="s">
+        <v>76</v>
+      </c>
+      <c r="D146">
+        <v>71998</v>
+      </c>
+      <c r="E146" t="s">
+        <v>118</v>
+      </c>
+      <c r="F146" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>8</v>
+      </c>
+      <c r="B147" t="s">
+        <v>39</v>
+      </c>
+      <c r="C147" t="s">
+        <v>77</v>
+      </c>
+      <c r="D147">
+        <v>75561</v>
+      </c>
+      <c r="E147" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148" t="s">
+        <v>77</v>
+      </c>
+      <c r="D148">
+        <v>70007</v>
+      </c>
+      <c r="E148" t="s">
+        <v>120</v>
+      </c>
+      <c r="F148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="s">
+        <v>39</v>
+      </c>
+      <c r="C149" t="s">
+        <v>77</v>
+      </c>
+      <c r="D149">
+        <v>58514</v>
+      </c>
+      <c r="E149" t="s">
+        <v>121</v>
+      </c>
+      <c r="F149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>39</v>
+      </c>
+      <c r="C150" t="s">
+        <v>77</v>
+      </c>
+      <c r="D150">
+        <v>57086</v>
+      </c>
+      <c r="E150" t="s">
+        <v>117</v>
+      </c>
+      <c r="F150" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>8</v>
+      </c>
+      <c r="B151" t="s">
+        <v>40</v>
+      </c>
+      <c r="C151" t="s">
+        <v>78</v>
+      </c>
+      <c r="D151">
+        <v>29151</v>
+      </c>
+      <c r="E151" t="s">
+        <v>90</v>
+      </c>
+      <c r="F151" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152">
+        <v>28440</v>
+      </c>
+      <c r="E152" t="s">
+        <v>91</v>
+      </c>
+      <c r="F152" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>8</v>
+      </c>
+      <c r="B153" t="s">
+        <v>40</v>
+      </c>
+      <c r="C153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153">
+        <v>27102</v>
+      </c>
+      <c r="E153" t="s">
+        <v>92</v>
+      </c>
+      <c r="F153" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154">
+        <v>19575</v>
+      </c>
+      <c r="E154" t="s">
+        <v>93</v>
+      </c>
+      <c r="F154" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>8</v>
+      </c>
+      <c r="B155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D155">
+        <v>13455</v>
+      </c>
+      <c r="E155" t="s">
+        <v>86</v>
+      </c>
+      <c r="F155" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>8</v>
+      </c>
+      <c r="B156" t="s">
+        <v>40</v>
+      </c>
+      <c r="C156" t="s">
+        <v>78</v>
+      </c>
+      <c r="D156">
+        <v>11701</v>
+      </c>
+      <c r="E156" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B157" t="s">
+        <v>41</v>
+      </c>
+      <c r="C157" t="s">
+        <v>79</v>
+      </c>
+      <c r="D157">
+        <v>28869</v>
+      </c>
+      <c r="E157" t="s">
+        <v>90</v>
+      </c>
+      <c r="F157" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>41</v>
+      </c>
+      <c r="C158" t="s">
+        <v>79</v>
+      </c>
+      <c r="D158">
+        <v>28164</v>
+      </c>
+      <c r="E158" t="s">
+        <v>91</v>
+      </c>
+      <c r="F158" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" t="s">
+        <v>42</v>
+      </c>
+      <c r="C159" t="s">
+        <v>80</v>
+      </c>
+      <c r="D159">
+        <v>89797</v>
+      </c>
+      <c r="E159" t="s">
+        <v>118</v>
+      </c>
+      <c r="F159" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" t="s">
+        <v>42</v>
+      </c>
+      <c r="C160" t="s">
+        <v>80</v>
+      </c>
+      <c r="D160">
+        <v>86004</v>
+      </c>
+      <c r="E160" t="s">
+        <v>119</v>
+      </c>
+      <c r="F160" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" t="s">
+        <v>42</v>
+      </c>
+      <c r="C161" t="s">
+        <v>80</v>
+      </c>
+      <c r="D161">
+        <v>83906</v>
+      </c>
+      <c r="E161" t="s">
+        <v>120</v>
+      </c>
+      <c r="F161" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" t="s">
+        <v>42</v>
+      </c>
+      <c r="C162" t="s">
+        <v>80</v>
+      </c>
+      <c r="D162">
+        <v>81859</v>
+      </c>
+      <c r="E162" t="s">
+        <v>121</v>
+      </c>
+      <c r="F162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>8</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" t="s">
+        <v>80</v>
+      </c>
+      <c r="D163">
+        <v>71424</v>
+      </c>
+      <c r="E163" t="s">
+        <v>117</v>
+      </c>
+      <c r="F163" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" t="s">
+        <v>43</v>
+      </c>
+      <c r="C164" t="s">
+        <v>81</v>
+      </c>
+      <c r="D164">
+        <v>8070</v>
+      </c>
+      <c r="E164" t="s">
+        <v>122</v>
+      </c>
+      <c r="F164" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>8</v>
+      </c>
+      <c r="B165" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" t="s">
+        <v>81</v>
+      </c>
+      <c r="D165">
+        <v>7072</v>
+      </c>
+      <c r="E165" t="s">
+        <v>123</v>
+      </c>
+      <c r="F165" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="s">
+        <v>44</v>
+      </c>
+      <c r="C166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166">
+        <v>133185</v>
+      </c>
+      <c r="E166" t="s">
+        <v>89</v>
+      </c>
+      <c r="F166" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>8</v>
+      </c>
+      <c r="B167" t="s">
+        <v>44</v>
+      </c>
+      <c r="C167" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167">
+        <v>129936</v>
+      </c>
+      <c r="E167" t="s">
+        <v>90</v>
+      </c>
+      <c r="F167" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>8</v>
+      </c>
+      <c r="B168" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168">
+        <v>92099</v>
+      </c>
+      <c r="E168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F168" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>8</v>
+      </c>
+      <c r="B169" t="s">
+        <v>44</v>
+      </c>
+      <c r="C169" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169">
+        <v>41220</v>
+      </c>
+      <c r="E169" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>8</v>
+      </c>
+      <c r="B170" t="s">
+        <v>44</v>
+      </c>
+      <c r="C170" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170">
+        <v>32289</v>
+      </c>
+      <c r="E170" t="s">
+        <v>86</v>
+      </c>
+      <c r="F170" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>44</v>
+      </c>
+      <c r="C171" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171">
+        <v>27713</v>
+      </c>
+      <c r="E171" t="s">
+        <v>87</v>
+      </c>
+      <c r="F171" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>45</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172">
+        <v>426859</v>
+      </c>
+      <c r="E172" t="s">
+        <v>121</v>
+      </c>
+      <c r="F172" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" t="s">
+        <v>83</v>
+      </c>
+      <c r="D173">
+        <v>384365</v>
+      </c>
+      <c r="E173" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>45</v>
+      </c>
+      <c r="C174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174">
+        <v>332825</v>
+      </c>
+      <c r="E174" t="s">
+        <v>88</v>
+      </c>
+      <c r="F174" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>46</v>
+      </c>
+      <c r="C175" t="s">
+        <v>84</v>
+      </c>
+      <c r="D175">
+        <v>396648</v>
+      </c>
+      <c r="E175" t="s">
+        <v>121</v>
+      </c>
+      <c r="F175" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" t="s">
+        <v>84</v>
+      </c>
+      <c r="D176">
+        <v>351603</v>
+      </c>
+      <c r="E176" t="s">
+        <v>117</v>
+      </c>
+      <c r="F176" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" t="s">
+        <v>84</v>
+      </c>
+      <c r="D177">
+        <v>294624</v>
+      </c>
+      <c r="E177" t="s">
+        <v>88</v>
+      </c>
+      <c r="F177" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>9</v>
+      </c>
+      <c r="B178" t="s">
+        <v>47</v>
+      </c>
+      <c r="C178" t="s">
+        <v>85</v>
+      </c>
+      <c r="D178">
+        <v>453297</v>
+      </c>
+      <c r="E178" t="s">
+        <v>121</v>
+      </c>
+      <c r="F178" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>9</v>
+      </c>
+      <c r="B179" t="s">
+        <v>47</v>
+      </c>
+      <c r="C179" t="s">
+        <v>85</v>
+      </c>
+      <c r="D179">
+        <v>401677</v>
+      </c>
+      <c r="E179" t="s">
+        <v>117</v>
+      </c>
+      <c r="F179" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>47</v>
+      </c>
+      <c r="C180" t="s">
+        <v>85</v>
+      </c>
+      <c r="D180">
+        <v>348246</v>
+      </c>
+      <c r="E180" t="s">
+        <v>88</v>
+      </c>
+      <c r="F180" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF326527-060B-4F6B-ADE0-8B937D971B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF5654-9117-4DF1-92EA-39DC4420EFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="106">
   <si>
     <t>Marca</t>
   </si>
@@ -43,115 +43,295 @@
     <t>Combustivel</t>
   </si>
   <si>
-    <t>Acura</t>
-  </si>
-  <si>
-    <t>Agrale</t>
-  </si>
-  <si>
-    <t>Integra GS 1.8</t>
-  </si>
-  <si>
-    <t>Legend 3.2/3.5</t>
-  </si>
-  <si>
-    <t>NSX 3.0</t>
-  </si>
-  <si>
-    <t>MARRUÁ 2.8 12V 132cv TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 100 2.8  CS TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 100 2.8 CD TDI Diesel</t>
-  </si>
-  <si>
-    <t>MARRUÁ AM 150 2.8  CS TDI Diesel</t>
-  </si>
-  <si>
-    <t>038003-2</t>
-  </si>
-  <si>
-    <t>038002-4</t>
-  </si>
-  <si>
-    <t>038001-6</t>
-  </si>
-  <si>
-    <t>060001-6</t>
-  </si>
-  <si>
-    <t>060003-2</t>
-  </si>
-  <si>
-    <t>060004-0</t>
-  </si>
-  <si>
-    <t>060005-9</t>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>AM Gen</t>
+  </si>
+  <si>
+    <t>Asia Motors</t>
+  </si>
+  <si>
+    <t>145 Elegant 1.7/1.8 16V</t>
+  </si>
+  <si>
+    <t>145 Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>145 Quadrifoglio 2.0</t>
+  </si>
+  <si>
+    <t>145 QV</t>
+  </si>
+  <si>
+    <t>147 2.0 16V 148cv 4p Semi-Aut.</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>155 Super</t>
+  </si>
+  <si>
+    <t>156 2.5 V6 24V 190cv 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.0 16V</t>
+  </si>
+  <si>
+    <t>156 Sport Wagon 2.5 V6 24V 4p Aut.</t>
+  </si>
+  <si>
+    <t>156 TS/Sport/Elegant 2.0 16V</t>
+  </si>
+  <si>
+    <t>164 3.0 V6</t>
+  </si>
+  <si>
+    <t>164 Super V6 24V</t>
+  </si>
+  <si>
+    <t>166 3.0 V6 24V</t>
+  </si>
+  <si>
+    <t>2300 TI/TI-4</t>
+  </si>
+  <si>
+    <t>Spider 2.0/3.0</t>
+  </si>
+  <si>
+    <t>Hummer Hard-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Open-Top 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>Hummer Wagon 6.5 4x4 Diesel TB</t>
+  </si>
+  <si>
+    <t>AM-825 Luxo 4.0 Diesel</t>
+  </si>
+  <si>
+    <t>AM-825 Super Luxo 4.0 Diesel</t>
+  </si>
+  <si>
+    <t>Hi-Topic SLX/SDX/DLX Full Diesel</t>
+  </si>
+  <si>
+    <t>Hi-Topic STD Diesel</t>
+  </si>
+  <si>
+    <t>Hi-Topic Van 2.7 Diesel (furgão)</t>
+  </si>
+  <si>
+    <t>Jipe Rocsta GT 4x4 2.2 Diesel</t>
+  </si>
+  <si>
+    <t>Topic Carga 2.7 Diesel (furgão)</t>
+  </si>
+  <si>
+    <t>Topic Luxo Diesel</t>
+  </si>
+  <si>
+    <t>Topic Super Luxo Diesel</t>
+  </si>
+  <si>
+    <t>Towner Coach Full</t>
+  </si>
+  <si>
+    <t>Towner Furgão</t>
+  </si>
+  <si>
+    <t>Towner Glass Van</t>
+  </si>
+  <si>
+    <t>Towner Luxo</t>
+  </si>
+  <si>
+    <t>Towner Multiuso 5p</t>
+  </si>
+  <si>
+    <t>Towner Panel Van</t>
+  </si>
+  <si>
+    <t>Towner Pick-Up</t>
+  </si>
+  <si>
+    <t>Towner SDX / DLX/ STD</t>
+  </si>
+  <si>
+    <t>Towner Super Luxo</t>
+  </si>
+  <si>
+    <t>Towner Truck</t>
+  </si>
+  <si>
+    <t>006009-7</t>
+  </si>
+  <si>
+    <t>006001-1</t>
+  </si>
+  <si>
+    <t>006002-0</t>
+  </si>
+  <si>
+    <t>006008-9</t>
+  </si>
+  <si>
+    <t>006017-8</t>
+  </si>
+  <si>
+    <t>006003-8</t>
+  </si>
+  <si>
+    <t>006004-6</t>
+  </si>
+  <si>
+    <t>006015-1</t>
+  </si>
+  <si>
+    <t>006014-3</t>
+  </si>
+  <si>
+    <t>006016-0</t>
+  </si>
+  <si>
+    <t>006010-0</t>
+  </si>
+  <si>
+    <t>006005-4</t>
+  </si>
+  <si>
+    <t>006006-2</t>
+  </si>
+  <si>
+    <t>006011-9</t>
+  </si>
+  <si>
+    <t>006013-5</t>
+  </si>
+  <si>
+    <t>006007-0</t>
+  </si>
+  <si>
+    <t>037001-0</t>
+  </si>
+  <si>
+    <t>037002-9</t>
+  </si>
+  <si>
+    <t>037003-7</t>
+  </si>
+  <si>
+    <t>007018-1</t>
+  </si>
+  <si>
+    <t>007019-0</t>
+  </si>
+  <si>
+    <t>007001-7</t>
+  </si>
+  <si>
+    <t>007002-5</t>
+  </si>
+  <si>
+    <t>007017-3</t>
+  </si>
+  <si>
+    <t>007020-3</t>
+  </si>
+  <si>
+    <t>007016-5</t>
+  </si>
+  <si>
+    <t>007014-9</t>
+  </si>
+  <si>
+    <t>007015-7</t>
+  </si>
+  <si>
+    <t>007003-3</t>
+  </si>
+  <si>
+    <t>007009-2</t>
+  </si>
+  <si>
+    <t>007004-1</t>
+  </si>
+  <si>
+    <t>007012-2</t>
+  </si>
+  <si>
+    <t>007011-4</t>
+  </si>
+  <si>
+    <t>007005-0</t>
+  </si>
+  <si>
+    <t>007008-4</t>
+  </si>
+  <si>
+    <t>007006-8</t>
+  </si>
+  <si>
+    <t>007013-0</t>
+  </si>
+  <si>
+    <t>007007-6</t>
   </si>
   <si>
     <t>junho de 2025</t>
   </si>
   <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
     <t>1992</t>
   </si>
   <si>
     <t>1991</t>
   </si>
   <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
   </si>
   <si>
     <t>Gasolina</t>
@@ -216,13 +396,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -536,13 +713,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -573,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>11097</v>
+        <v>27313</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -596,22 +773,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>10366</v>
+        <v>21558</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -622,19 +799,19 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>25397</v>
+        <v>14581</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,19 +822,19 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>22580</v>
+        <v>13265</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -665,22 +842,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>21233</v>
+        <v>21581</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -688,22 +865,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D7">
-        <v>19084</v>
+        <v>17680</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -711,22 +888,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>18267</v>
+        <v>17248</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -734,22 +911,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D9">
-        <v>16282</v>
+        <v>13550</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -757,22 +934,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D10">
-        <v>14802</v>
+        <v>29872</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -780,22 +957,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>14219</v>
+        <v>29143</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -803,22 +980,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>40991</v>
+        <v>23404</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -826,22 +1003,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>39550</v>
+        <v>22833</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -849,22 +1026,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>38236</v>
+        <v>22449</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -872,22 +1049,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>36538</v>
+        <v>18647</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -895,597 +1072,3058 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>33397</v>
+        <v>18192</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>48251</v>
+        <v>92142</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>44511</v>
+        <v>89894</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>43362</v>
+        <v>87701</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>36756</v>
+        <v>19511</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>108542</v>
+        <v>18466</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>102457</v>
+        <v>15931</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>94808</v>
+        <v>24925</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F23" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>92495</v>
+        <v>24317</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>77133</v>
+        <v>19754</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>64732</v>
+        <v>104853</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>50855</v>
+        <v>32424</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>45520</v>
+        <v>49978</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>118402</v>
+        <v>45101</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>109313</v>
+        <v>74355</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D31">
-        <v>105835</v>
+        <v>71998</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D32">
-        <v>98655</v>
+        <v>75561</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <v>79141</v>
+        <v>70007</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D34">
-        <v>67803</v>
+        <v>58514</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D35">
-        <v>56957</v>
+        <v>57086</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>52227</v>
+        <v>29151</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>49774</v>
+        <v>28440</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>109984</v>
+        <v>27102</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>102929</v>
+        <v>19575</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>95786</v>
+        <v>13455</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41">
+        <v>11701</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>28869</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>28164</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44">
+        <v>89797</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45">
+        <v>86004</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>83906</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>81859</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48">
+        <v>71424</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>8070</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>102</v>
+      </c>
+      <c r="G49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50">
+        <v>7072</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51">
+        <v>133185</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52">
+        <v>129936</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F52" t="s">
+        <v>90</v>
+      </c>
+      <c r="G52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>92099</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54">
+        <v>41220</v>
+      </c>
+      <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55">
+        <v>32289</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56">
+        <v>27713</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41">
-        <v>90235</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57">
+        <v>426859</v>
+      </c>
+      <c r="E57" t="s">
+        <v>105</v>
+      </c>
+      <c r="F57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58">
+        <v>384365</v>
+      </c>
+      <c r="E58" t="s">
+        <v>105</v>
+      </c>
+      <c r="F58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59">
+        <v>332825</v>
+      </c>
+      <c r="E59" t="s">
+        <v>105</v>
+      </c>
+      <c r="F59" t="s">
+        <v>88</v>
+      </c>
+      <c r="G59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60">
+        <v>396648</v>
+      </c>
+      <c r="E60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61">
+        <v>351603</v>
+      </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>294624</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" t="s">
+        <v>88</v>
+      </c>
+      <c r="G62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>453297</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+      <c r="D64">
+        <v>401677</v>
+      </c>
+      <c r="E64" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65">
+        <v>348246</v>
+      </c>
+      <c r="E65" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>67</v>
+      </c>
+      <c r="D66">
+        <v>25397</v>
+      </c>
+      <c r="E66" t="s">
+        <v>105</v>
+      </c>
+      <c r="F66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <v>21995</v>
+      </c>
+      <c r="E67" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>18798</v>
+      </c>
+      <c r="E68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69">
+        <v>18158</v>
+      </c>
+      <c r="E69" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70">
+        <v>16980</v>
+      </c>
+      <c r="E70" t="s">
+        <v>105</v>
+      </c>
+      <c r="F70" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71">
+        <v>27427</v>
+      </c>
+      <c r="E71" t="s">
+        <v>105</v>
+      </c>
+      <c r="F71" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72">
+        <v>25605</v>
+      </c>
+      <c r="E72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73">
+        <v>21492</v>
+      </c>
+      <c r="E73" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" t="s">
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74">
+        <v>19903</v>
+      </c>
+      <c r="E74" t="s">
+        <v>105</v>
+      </c>
+      <c r="F74" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75">
+        <v>19231</v>
+      </c>
+      <c r="E75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F75" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76">
+        <v>15514</v>
+      </c>
+      <c r="E76" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77">
+        <v>14842</v>
+      </c>
+      <c r="E77" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78">
+        <v>12659</v>
+      </c>
+      <c r="E78" t="s">
+        <v>105</v>
+      </c>
+      <c r="F78" t="s">
+        <v>90</v>
+      </c>
+      <c r="G78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79">
+        <v>12058</v>
+      </c>
+      <c r="E79" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80">
+        <v>11358</v>
+      </c>
+      <c r="E80" t="s">
+        <v>105</v>
+      </c>
+      <c r="F80" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81">
+        <v>9903</v>
+      </c>
+      <c r="E81" t="s">
+        <v>105</v>
+      </c>
+      <c r="F81" t="s">
+        <v>99</v>
+      </c>
+      <c r="G81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82">
+        <v>14608</v>
+      </c>
+      <c r="E82" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" t="s">
+        <v>88</v>
+      </c>
+      <c r="G82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83">
+        <v>13421</v>
+      </c>
+      <c r="E83" t="s">
+        <v>105</v>
+      </c>
+      <c r="F83" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84">
+        <v>12439</v>
+      </c>
+      <c r="E84" t="s">
+        <v>105</v>
+      </c>
+      <c r="F84" t="s">
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85">
+        <v>11373</v>
+      </c>
+      <c r="E85" t="s">
+        <v>105</v>
+      </c>
+      <c r="F85" t="s">
+        <v>91</v>
+      </c>
+      <c r="G85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86">
+        <v>10192</v>
+      </c>
+      <c r="E86" t="s">
+        <v>105</v>
+      </c>
+      <c r="F86" t="s">
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87">
+        <v>9297</v>
+      </c>
+      <c r="E87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F87" t="s">
+        <v>99</v>
+      </c>
+      <c r="G87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88">
+        <v>12164</v>
+      </c>
+      <c r="E88" t="s">
+        <v>105</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89">
+        <v>11236</v>
+      </c>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>71</v>
+      </c>
+      <c r="D90">
+        <v>9800</v>
+      </c>
+      <c r="E90" t="s">
+        <v>105</v>
+      </c>
+      <c r="F90" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>71</v>
+      </c>
+      <c r="D91">
+        <v>9324</v>
+      </c>
+      <c r="E91" t="s">
+        <v>105</v>
+      </c>
+      <c r="F91" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92">
+        <v>25330</v>
+      </c>
+      <c r="E92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93">
+        <v>24712</v>
+      </c>
+      <c r="E93" t="s">
+        <v>105</v>
+      </c>
+      <c r="F93" t="s">
+        <v>98</v>
+      </c>
+      <c r="G93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94" t="s">
+        <v>73</v>
+      </c>
+      <c r="D94">
+        <v>16727</v>
+      </c>
+      <c r="E94" t="s">
+        <v>105</v>
+      </c>
+      <c r="F94" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D95">
+        <v>13972</v>
+      </c>
+      <c r="E95" t="s">
+        <v>105</v>
+      </c>
+      <c r="F95" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>9</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96">
+        <v>13585</v>
+      </c>
+      <c r="E96" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97">
+        <v>16655</v>
+      </c>
+      <c r="E97" t="s">
+        <v>105</v>
+      </c>
+      <c r="F97" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" t="s">
+        <v>74</v>
+      </c>
+      <c r="D98">
+        <v>14777</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" t="s">
+        <v>88</v>
+      </c>
+      <c r="G98" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" t="s">
+        <v>74</v>
+      </c>
+      <c r="D99">
+        <v>12873</v>
+      </c>
+      <c r="E99" t="s">
+        <v>105</v>
+      </c>
+      <c r="F99" t="s">
+        <v>89</v>
+      </c>
+      <c r="G99" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" t="s">
+        <v>75</v>
+      </c>
+      <c r="D100">
+        <v>19837</v>
+      </c>
+      <c r="E100" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" t="s">
+        <v>87</v>
+      </c>
+      <c r="G100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101">
+        <v>13972</v>
+      </c>
+      <c r="E101" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" t="s">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" t="s">
+        <v>75</v>
+      </c>
+      <c r="D102">
+        <v>14311</v>
+      </c>
+      <c r="E102" t="s">
+        <v>105</v>
+      </c>
+      <c r="F102" t="s">
+        <v>89</v>
+      </c>
+      <c r="G102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103">
+        <v>12443</v>
+      </c>
+      <c r="E103" t="s">
+        <v>105</v>
+      </c>
+      <c r="F103" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>76</v>
+      </c>
+      <c r="D104">
+        <v>6442</v>
+      </c>
+      <c r="E104" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104" t="s">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+      <c r="D105">
+        <v>6095</v>
+      </c>
+      <c r="E105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F105" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106">
+        <v>5884</v>
+      </c>
+      <c r="E106" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107">
+        <v>5680</v>
+      </c>
+      <c r="E107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108">
+        <v>5955</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+      <c r="F108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109">
+        <v>5298</v>
+      </c>
+      <c r="E109" t="s">
+        <v>104</v>
+      </c>
+      <c r="F109" t="s">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>77</v>
+      </c>
+      <c r="D110">
+        <v>5168</v>
+      </c>
+      <c r="E110" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110" t="s">
+        <v>89</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>77</v>
+      </c>
+      <c r="D111">
+        <v>4546</v>
+      </c>
+      <c r="E111" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111" t="s">
+        <v>90</v>
+      </c>
+      <c r="G111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" t="s">
+        <v>77</v>
+      </c>
+      <c r="D112">
+        <v>4415</v>
+      </c>
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112" t="s">
+        <v>91</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113">
+        <v>3607</v>
+      </c>
+      <c r="E113" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113" t="s">
+        <v>98</v>
+      </c>
+      <c r="G113" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D114">
+        <v>5607</v>
+      </c>
+      <c r="E114" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114" t="s">
+        <v>88</v>
+      </c>
+      <c r="G114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" t="s">
+        <v>78</v>
+      </c>
+      <c r="D115">
+        <v>5281</v>
+      </c>
+      <c r="E115" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115" t="s">
+        <v>89</v>
+      </c>
+      <c r="G115" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" t="s">
+        <v>78</v>
+      </c>
+      <c r="D116">
+        <v>4945</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116" t="s">
+        <v>90</v>
+      </c>
+      <c r="G116" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117" t="s">
+        <v>78</v>
+      </c>
+      <c r="D117">
+        <v>4532</v>
+      </c>
+      <c r="E117" t="s">
+        <v>104</v>
+      </c>
+      <c r="F117" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" t="s">
+        <v>78</v>
+      </c>
+      <c r="D118">
+        <v>3838</v>
+      </c>
+      <c r="E118" t="s">
+        <v>104</v>
+      </c>
+      <c r="F118" t="s">
+        <v>98</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>40</v>
+      </c>
+      <c r="C119" t="s">
+        <v>78</v>
+      </c>
+      <c r="D119">
+        <v>3291</v>
+      </c>
+      <c r="E119" t="s">
+        <v>104</v>
+      </c>
+      <c r="F119" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>41</v>
+      </c>
+      <c r="C120" t="s">
+        <v>79</v>
+      </c>
+      <c r="D120">
+        <v>5858</v>
+      </c>
+      <c r="E120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120" t="s">
+        <v>87</v>
+      </c>
+      <c r="G120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C121" t="s">
+        <v>79</v>
+      </c>
+      <c r="D121">
+        <v>5699</v>
+      </c>
+      <c r="E121" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" t="s">
+        <v>88</v>
+      </c>
+      <c r="G121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>41</v>
+      </c>
+      <c r="C122" t="s">
+        <v>79</v>
+      </c>
+      <c r="D122">
+        <v>5481</v>
+      </c>
+      <c r="E122" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D123">
+        <v>4160</v>
+      </c>
+      <c r="E123" t="s">
+        <v>104</v>
+      </c>
+      <c r="F123" t="s">
+        <v>87</v>
+      </c>
+      <c r="G123" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124">
+        <v>4058</v>
+      </c>
+      <c r="E124" t="s">
+        <v>104</v>
+      </c>
+      <c r="F124" t="s">
+        <v>88</v>
+      </c>
+      <c r="G124" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>42</v>
+      </c>
+      <c r="C125" t="s">
+        <v>80</v>
+      </c>
+      <c r="D125">
+        <v>3746</v>
+      </c>
+      <c r="E125" t="s">
+        <v>104</v>
+      </c>
+      <c r="F125" t="s">
+        <v>89</v>
+      </c>
+      <c r="G125" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>43</v>
+      </c>
+      <c r="C126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D126">
+        <v>3569</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+      <c r="F126" t="s">
+        <v>88</v>
+      </c>
+      <c r="G126" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>43</v>
+      </c>
+      <c r="C127" t="s">
+        <v>81</v>
+      </c>
+      <c r="D127">
+        <v>3442</v>
+      </c>
+      <c r="E127" t="s">
+        <v>104</v>
+      </c>
+      <c r="F127" t="s">
+        <v>89</v>
+      </c>
+      <c r="G127" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s">
+        <v>81</v>
+      </c>
+      <c r="D128">
+        <v>3284</v>
+      </c>
+      <c r="E128" t="s">
+        <v>104</v>
+      </c>
+      <c r="F128" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>43</v>
+      </c>
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129">
+        <v>2840</v>
+      </c>
+      <c r="E129" t="s">
+        <v>104</v>
+      </c>
+      <c r="F129" t="s">
+        <v>91</v>
+      </c>
+      <c r="G129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>43</v>
+      </c>
+      <c r="C130" t="s">
+        <v>81</v>
+      </c>
+      <c r="D130">
+        <v>2401</v>
+      </c>
+      <c r="E130" t="s">
+        <v>104</v>
+      </c>
+      <c r="F130" t="s">
+        <v>98</v>
+      </c>
+      <c r="G130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131">
+        <v>5876</v>
+      </c>
+      <c r="E131" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131" t="s">
+        <v>87</v>
+      </c>
+      <c r="G131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>44</v>
+      </c>
+      <c r="C132" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132">
+        <v>5732</v>
+      </c>
+      <c r="E132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>44</v>
+      </c>
+      <c r="C133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133">
+        <v>4374</v>
+      </c>
+      <c r="E133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F133" t="s">
+        <v>89</v>
+      </c>
+      <c r="G133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
         <v>45</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>23</v>
+      <c r="C134" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134">
+        <v>7989</v>
+      </c>
+      <c r="E134" t="s">
+        <v>104</v>
+      </c>
+      <c r="F134" t="s">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>45</v>
+      </c>
+      <c r="C135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135">
+        <v>7146</v>
+      </c>
+      <c r="E135" t="s">
+        <v>104</v>
+      </c>
+      <c r="F135" t="s">
+        <v>89</v>
+      </c>
+      <c r="G135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>45</v>
+      </c>
+      <c r="C136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136">
+        <v>6889</v>
+      </c>
+      <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+      <c r="C137" t="s">
+        <v>83</v>
+      </c>
+      <c r="D137">
+        <v>6037</v>
+      </c>
+      <c r="E137" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D138">
+        <v>4876</v>
+      </c>
+      <c r="E138" t="s">
+        <v>104</v>
+      </c>
+      <c r="F138" t="s">
+        <v>98</v>
+      </c>
+      <c r="G138" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" t="s">
+        <v>83</v>
+      </c>
+      <c r="D139">
+        <v>4281</v>
+      </c>
+      <c r="E139" t="s">
+        <v>104</v>
+      </c>
+      <c r="F139" t="s">
+        <v>99</v>
+      </c>
+      <c r="G139" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>46</v>
+      </c>
+      <c r="C140" t="s">
+        <v>84</v>
+      </c>
+      <c r="D140">
+        <v>6241</v>
+      </c>
+      <c r="E140" t="s">
+        <v>104</v>
+      </c>
+      <c r="F140" t="s">
+        <v>87</v>
+      </c>
+      <c r="G140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" t="s">
+        <v>84</v>
+      </c>
+      <c r="D141">
+        <v>6088</v>
+      </c>
+      <c r="E141" t="s">
+        <v>104</v>
+      </c>
+      <c r="F141" t="s">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>84</v>
+      </c>
+      <c r="D142">
+        <v>5939</v>
+      </c>
+      <c r="E142" t="s">
+        <v>104</v>
+      </c>
+      <c r="F142" t="s">
+        <v>89</v>
+      </c>
+      <c r="G142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>47</v>
+      </c>
+      <c r="C143" t="s">
+        <v>85</v>
+      </c>
+      <c r="D143">
+        <v>5967</v>
+      </c>
+      <c r="E143" t="s">
+        <v>104</v>
+      </c>
+      <c r="F143" t="s">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>47</v>
+      </c>
+      <c r="C144" t="s">
+        <v>85</v>
+      </c>
+      <c r="D144">
+        <v>5821</v>
+      </c>
+      <c r="E144" t="s">
+        <v>104</v>
+      </c>
+      <c r="F144" t="s">
+        <v>89</v>
+      </c>
+      <c r="G144" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" t="s">
+        <v>85</v>
+      </c>
+      <c r="D145">
+        <v>5569</v>
+      </c>
+      <c r="E145" t="s">
+        <v>104</v>
+      </c>
+      <c r="F145" t="s">
+        <v>90</v>
+      </c>
+      <c r="G145" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>47</v>
+      </c>
+      <c r="C146" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146">
+        <v>4635</v>
+      </c>
+      <c r="E146" t="s">
+        <v>104</v>
+      </c>
+      <c r="F146" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" t="s">
+        <v>85</v>
+      </c>
+      <c r="D147">
+        <v>4206</v>
+      </c>
+      <c r="E147" t="s">
+        <v>104</v>
+      </c>
+      <c r="F147" t="s">
+        <v>98</v>
+      </c>
+      <c r="G147" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" t="s">
+        <v>85</v>
+      </c>
+      <c r="D148">
+        <v>4005</v>
+      </c>
+      <c r="E148" t="s">
+        <v>104</v>
+      </c>
+      <c r="F148" t="s">
+        <v>99</v>
+      </c>
+      <c r="G148" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.vinicius\Documents\Vscode\Fipe\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EF5654-9117-4DF1-92EA-39DC4420EFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="186">
   <si>
     <t>Marca</t>
   </si>
@@ -34,15 +28,15 @@
     <t>Preco Medio</t>
   </si>
   <si>
+    <t>Combustivel</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
     <t>Mes Referencia</t>
   </si>
   <si>
-    <t>Ano</t>
-  </si>
-  <si>
-    <t>Combustivel</t>
-  </si>
-  <si>
     <t>Alfa Romeo</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
     <t>Asia Motors</t>
   </si>
   <si>
+    <t>ASTON MARTIN</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
     <t>145 Elegant 1.7/1.8 16V</t>
   </si>
   <si>
@@ -166,6 +166,102 @@
     <t>Towner Truck</t>
   </si>
   <si>
+    <t>DB12 Coupe 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB12 Volante 4.0 V8 680cv</t>
+  </si>
+  <si>
+    <t>DB9 Coupe 6.0 V12 510cv</t>
+  </si>
+  <si>
+    <t>DB9 Volante 6.0 V12 470cv</t>
+  </si>
+  <si>
+    <t>DBS Coupe 5.2 V12 725cv</t>
+  </si>
+  <si>
+    <t>DBX 4.0 V8 550cv</t>
+  </si>
+  <si>
+    <t>DBX707 4.0 V8 707cv</t>
+  </si>
+  <si>
+    <t>Rapide 6.0 V12 477cv</t>
+  </si>
+  <si>
+    <t>Rapide S 6.0 V12 550cv</t>
+  </si>
+  <si>
+    <t>Vanquish V12 6.0 565cv</t>
+  </si>
+  <si>
+    <t>Vantage 6.0 V12 510cv</t>
+  </si>
+  <si>
+    <t>Vantage Coupe 4.7 V8 425cv</t>
+  </si>
+  <si>
+    <t>Vantage Cupê  4.0 V8 510cv</t>
+  </si>
+  <si>
+    <t>Vantage Cupê F1 Edition 4.0 V8 535cv</t>
+  </si>
+  <si>
+    <t>Vantage Roadster 4.7 V8 420cv</t>
+  </si>
+  <si>
+    <t>Vantage Roadster F1 Edition 4.0 V8 535cv</t>
+  </si>
+  <si>
+    <t>Vantage S 6.0 V12 565cv</t>
+  </si>
+  <si>
+    <t>Vantage S Coupe 4.7 V8 430cv</t>
+  </si>
+  <si>
+    <t>Virage Coupe 6.0 V12 490cv</t>
+  </si>
+  <si>
+    <t>100 2.8 V6</t>
+  </si>
+  <si>
+    <t>100 2.8 V6 Avant</t>
+  </si>
+  <si>
+    <t>100 S-4 2.2 Avant Turbo</t>
+  </si>
+  <si>
+    <t>80 2.0</t>
+  </si>
+  <si>
+    <t>80 2.0 Avant</t>
+  </si>
+  <si>
+    <t>80 2.6/ 2.8</t>
+  </si>
+  <si>
+    <t>80 2.6/2.8 Avant</t>
+  </si>
+  <si>
+    <t>80 2.8 Cabriolet</t>
+  </si>
+  <si>
+    <t>80 S2 Avant</t>
+  </si>
+  <si>
+    <t>A1 1.4 TFSI 122cv S-tronic 3p</t>
+  </si>
+  <si>
+    <t>A1 2.0 TFSI Quattro 256cv 3p</t>
+  </si>
+  <si>
+    <t>A1 Sport 1.4 TFSI 185cv 3p S-tronic</t>
+  </si>
+  <si>
+    <t>A1 Sport. S Edition 1.4 TFSI 5p S-tronic</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -280,71 +376,209 @@
     <t>007007-6</t>
   </si>
   <si>
+    <t>085018-7</t>
+  </si>
+  <si>
+    <t>085019-5</t>
+  </si>
+  <si>
+    <t>085011-0</t>
+  </si>
+  <si>
+    <t>085006-3</t>
+  </si>
+  <si>
+    <t>085014-4</t>
+  </si>
+  <si>
+    <t>085015-2</t>
+  </si>
+  <si>
+    <t>085016-0</t>
+  </si>
+  <si>
+    <t>085007-1</t>
+  </si>
+  <si>
+    <t>085009-8</t>
+  </si>
+  <si>
+    <t>085010-1</t>
+  </si>
+  <si>
+    <t>085004-7</t>
+  </si>
+  <si>
+    <t>085002-0</t>
+  </si>
+  <si>
+    <t>085012-8</t>
+  </si>
+  <si>
+    <t>085013-6</t>
+  </si>
+  <si>
+    <t>085003-9</t>
+  </si>
+  <si>
+    <t>085017-9</t>
+  </si>
+  <si>
+    <t>085008-0</t>
+  </si>
+  <si>
+    <t>085001-2</t>
+  </si>
+  <si>
+    <t>085005-5</t>
+  </si>
+  <si>
+    <t>008030-6</t>
+  </si>
+  <si>
+    <t>008076-4</t>
+  </si>
+  <si>
+    <t>008031-4</t>
+  </si>
+  <si>
+    <t>008001-2</t>
+  </si>
+  <si>
+    <t>008077-2</t>
+  </si>
+  <si>
+    <t>008080-2</t>
+  </si>
+  <si>
+    <t>008002-0</t>
+  </si>
+  <si>
+    <t>008003-9</t>
+  </si>
+  <si>
+    <t>008004-7</t>
+  </si>
+  <si>
+    <t>008153-1</t>
+  </si>
+  <si>
+    <t>008177-9</t>
+  </si>
+  <si>
+    <t>008172-8</t>
+  </si>
+  <si>
+    <t>008210-4</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>KM a Gasolina</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
     <t>junho de 2025</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>Diesel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,21 +641,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -459,7 +685,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -493,7 +719,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -528,10 +753,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -704,25 +928,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,3394 +949,5073 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D2">
         <v>27313</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D3">
         <v>21558</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>14581</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>13265</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D6">
         <v>21581</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>17680</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D8">
         <v>17248</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>13550</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <v>29872</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>29143</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D12">
         <v>23404</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D13">
         <v>22833</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D14">
         <v>22449</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>18647</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="D16">
         <v>18192</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D17">
         <v>92142</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>89894</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="D19">
         <v>87701</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D20">
         <v>19511</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D21">
         <v>18466</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D22">
         <v>15931</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D23">
         <v>24925</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>24317</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F24" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>19754</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>104853</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D27">
         <v>32424</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>49978</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="D29">
         <v>45101</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="G29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D30">
         <v>74355</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="G30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>71998</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D32">
         <v>75561</v>
       </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="G32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>70007</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D34">
         <v>58514</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="D35">
         <v>57086</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F35" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D36">
         <v>29151</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>28440</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <v>27102</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F38" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D39">
         <v>19575</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D40">
         <v>13455</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D41">
         <v>11701</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D42">
         <v>28869</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F42" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>28164</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F43" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D44">
         <v>89797</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <v>86004</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F45" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="G45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D46">
         <v>83906</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F46" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D47">
         <v>81859</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D48">
         <v>71424</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D49">
         <v>8070</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D50">
         <v>7072</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D51">
         <v>133185</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G51" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D52">
         <v>129936</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G52" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>7</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D53">
         <v>92099</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D54">
         <v>41220</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D55">
         <v>32289</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D56">
         <v>27713</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="G56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D57">
         <v>426859</v>
       </c>
       <c r="E57" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D58">
         <v>384365</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F58" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="D59">
         <v>332825</v>
       </c>
       <c r="E59" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G59" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D60">
         <v>396648</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D61">
         <v>351603</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D62">
         <v>294624</v>
       </c>
       <c r="E62" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D63">
         <v>453297</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="G63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D64">
         <v>401677</v>
       </c>
       <c r="E64" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F64" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>348246</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D66">
         <v>25397</v>
       </c>
       <c r="E66" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D67">
         <v>21995</v>
       </c>
       <c r="E67" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F67" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D68">
         <v>18798</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F68" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D69">
         <v>18158</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F69" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D70">
         <v>16980</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D71">
         <v>27427</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D72">
         <v>25605</v>
       </c>
       <c r="E72" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D73">
         <v>21492</v>
       </c>
       <c r="E73" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D74">
         <v>19903</v>
       </c>
       <c r="E74" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="D75">
         <v>19231</v>
       </c>
       <c r="E75" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F75" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D76">
         <v>15514</v>
       </c>
       <c r="E76" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D77">
         <v>14842</v>
       </c>
       <c r="E77" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D78">
         <v>12659</v>
       </c>
       <c r="E78" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D79">
         <v>12058</v>
       </c>
       <c r="E79" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D80">
         <v>11358</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G80" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="D81">
         <v>9903</v>
       </c>
       <c r="E81" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D82">
         <v>14608</v>
       </c>
       <c r="E82" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D83">
         <v>13421</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G83" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D84">
         <v>12439</v>
       </c>
       <c r="E84" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D85">
         <v>11373</v>
       </c>
       <c r="E85" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G85" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D86">
         <v>10192</v>
       </c>
       <c r="E86" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D87">
         <v>9297</v>
       </c>
       <c r="E87" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
         <v>105</v>
-      </c>
-      <c r="F87" t="s">
-        <v>99</v>
-      </c>
-      <c r="G87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" t="s">
-        <v>71</v>
       </c>
       <c r="D88">
         <v>12164</v>
       </c>
       <c r="E88" t="s">
+        <v>153</v>
+      </c>
+      <c r="F88" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>35</v>
+      </c>
+      <c r="C89" t="s">
         <v>105</v>
-      </c>
-      <c r="F88" t="s">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" t="s">
-        <v>71</v>
       </c>
       <c r="D89">
         <v>11236</v>
       </c>
       <c r="E89" t="s">
+        <v>153</v>
+      </c>
+      <c r="F89" t="s">
+        <v>158</v>
+      </c>
+      <c r="G89" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" t="s">
         <v>105</v>
-      </c>
-      <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" t="s">
-        <v>71</v>
       </c>
       <c r="D90">
         <v>9800</v>
       </c>
       <c r="E90" t="s">
+        <v>153</v>
+      </c>
+      <c r="F90" t="s">
+        <v>159</v>
+      </c>
+      <c r="G90" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C91" t="s">
         <v>105</v>
-      </c>
-      <c r="F90" t="s">
-        <v>91</v>
-      </c>
-      <c r="G90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" t="s">
-        <v>71</v>
       </c>
       <c r="D91">
         <v>9324</v>
       </c>
       <c r="E91" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G91" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D92">
         <v>25330</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="D93">
         <v>24712</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G93" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D94">
         <v>16727</v>
       </c>
       <c r="E94" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F94" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D95">
         <v>13972</v>
       </c>
       <c r="E95" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F95" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G95" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D96">
         <v>13585</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F96" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G96" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D97">
         <v>16655</v>
       </c>
       <c r="E97" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G97" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D98">
         <v>14777</v>
       </c>
       <c r="E98" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D99">
         <v>12873</v>
       </c>
       <c r="E99" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G99" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D100">
         <v>19837</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F100" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G100" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="D101">
         <v>13972</v>
       </c>
       <c r="E101" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F101" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G101" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D102">
         <v>14311</v>
       </c>
       <c r="E102" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F102" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="D103">
         <v>12443</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="F103" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G103" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D104">
         <v>6442</v>
       </c>
       <c r="E104" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F104" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G104" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D105">
         <v>6095</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F105" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G105" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>9</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D106">
         <v>5884</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G106" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>9</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="D107">
         <v>5680</v>
       </c>
       <c r="E107" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G107" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D108">
         <v>5955</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F108" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G108" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D109">
         <v>5298</v>
       </c>
       <c r="E109" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F109" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G109" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D110">
         <v>5168</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F110" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D111">
         <v>4546</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F111" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G111" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D112">
         <v>4415</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F112" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>9</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="D113">
         <v>3607</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F113" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G113" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D114">
         <v>5607</v>
       </c>
       <c r="E114" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F114" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D115">
         <v>5281</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F115" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D116">
         <v>4945</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G116" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D117">
         <v>4532</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F117" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G117" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D118">
         <v>3838</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F118" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G118" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="D119">
         <v>3291</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F119" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G119" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D120">
         <v>5858</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F120" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G120" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D121">
         <v>5699</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F121" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G121" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>9</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D122">
         <v>5481</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F122" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>9</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D123">
         <v>4160</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F123" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G123" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D124">
         <v>4058</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F124" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G124" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>9</v>
       </c>
       <c r="B125" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="D125">
         <v>3746</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F125" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G125" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C126" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D126">
         <v>3569</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F126" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G126" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>9</v>
       </c>
       <c r="B127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D127">
         <v>3442</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F127" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G127" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>9</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D128">
         <v>3284</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F128" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G128" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D129">
         <v>2840</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F129" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G129" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D130">
         <v>2401</v>
       </c>
       <c r="E130" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F130" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G130" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>9</v>
       </c>
       <c r="B131" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D131">
         <v>5876</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F131" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D132">
         <v>5732</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F132" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G132" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>9</v>
       </c>
       <c r="B133" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="D133">
         <v>4374</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F133" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G133" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>9</v>
       </c>
       <c r="B134" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D134">
         <v>7989</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F134" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G134" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C135" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D135">
         <v>7146</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G135" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>9</v>
       </c>
       <c r="B136" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C136" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D136">
         <v>6889</v>
       </c>
       <c r="E136" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F136" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G136" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>9</v>
       </c>
       <c r="B137" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C137" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D137">
         <v>6037</v>
       </c>
       <c r="E137" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F137" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G137" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>9</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C138" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D138">
         <v>4876</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F138" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G138" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D139">
         <v>4281</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F139" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D140">
         <v>6241</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F140" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="G140" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>9</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C141" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D141">
         <v>6088</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F141" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G141" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>9</v>
       </c>
       <c r="B142" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="D142">
         <v>5939</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F142" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G142" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>9</v>
       </c>
       <c r="B143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D143">
         <v>5967</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F143" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="G143" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>9</v>
       </c>
       <c r="B144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C144" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D144">
         <v>5821</v>
       </c>
       <c r="E144" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F144" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>9</v>
       </c>
       <c r="B145" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D145">
         <v>5569</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F145" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>9</v>
       </c>
       <c r="B146" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C146" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D146">
         <v>4635</v>
       </c>
       <c r="E146" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F146" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="G146" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>9</v>
       </c>
       <c r="B147" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C147" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D147">
         <v>4206</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F147" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="G147" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="D148">
         <v>4005</v>
       </c>
       <c r="E148" t="s">
-        <v>104</v>
+        <v>152</v>
       </c>
       <c r="F148" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="G148" t="s">
-        <v>86</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" t="s">
+        <v>120</v>
+      </c>
+      <c r="D149">
+        <v>3600000</v>
+      </c>
+      <c r="E149" t="s">
+        <v>154</v>
+      </c>
+      <c r="F149" t="s">
+        <v>172</v>
+      </c>
+      <c r="G149" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" t="s">
+        <v>120</v>
+      </c>
+      <c r="D150">
+        <v>3228897</v>
+      </c>
+      <c r="E150" t="s">
+        <v>152</v>
+      </c>
+      <c r="F150" t="s">
+        <v>173</v>
+      </c>
+      <c r="G150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>50</v>
+      </c>
+      <c r="C151" t="s">
+        <v>120</v>
+      </c>
+      <c r="D151">
+        <v>3070680</v>
+      </c>
+      <c r="E151" t="s">
+        <v>152</v>
+      </c>
+      <c r="F151" t="s">
+        <v>174</v>
+      </c>
+      <c r="G151" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>51</v>
+      </c>
+      <c r="C152" t="s">
+        <v>121</v>
+      </c>
+      <c r="D152">
+        <v>3900000</v>
+      </c>
+      <c r="E152" t="s">
+        <v>154</v>
+      </c>
+      <c r="F152" t="s">
+        <v>172</v>
+      </c>
+      <c r="G152" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153" t="s">
+        <v>121</v>
+      </c>
+      <c r="D153">
+        <v>3625334</v>
+      </c>
+      <c r="E153" t="s">
+        <v>152</v>
+      </c>
+      <c r="F153" t="s">
+        <v>173</v>
+      </c>
+      <c r="G153" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" t="s">
+        <v>122</v>
+      </c>
+      <c r="D154">
+        <v>1214247</v>
+      </c>
+      <c r="E154" t="s">
+        <v>152</v>
+      </c>
+      <c r="F154" t="s">
+        <v>175</v>
+      </c>
+      <c r="G154" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" t="s">
+        <v>122</v>
+      </c>
+      <c r="D155">
+        <v>946995</v>
+      </c>
+      <c r="E155" t="s">
+        <v>152</v>
+      </c>
+      <c r="F155" t="s">
+        <v>176</v>
+      </c>
+      <c r="G155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>53</v>
+      </c>
+      <c r="C156" t="s">
+        <v>123</v>
+      </c>
+      <c r="D156">
+        <v>617791</v>
+      </c>
+      <c r="E156" t="s">
+        <v>152</v>
+      </c>
+      <c r="F156" t="s">
+        <v>177</v>
+      </c>
+      <c r="G156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" t="s">
+        <v>124</v>
+      </c>
+      <c r="D157">
+        <v>4493874</v>
+      </c>
+      <c r="E157" t="s">
+        <v>152</v>
+      </c>
+      <c r="F157" t="s">
+        <v>178</v>
+      </c>
+      <c r="G157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158">
+        <v>4142252</v>
+      </c>
+      <c r="E158" t="s">
+        <v>152</v>
+      </c>
+      <c r="F158" t="s">
+        <v>179</v>
+      </c>
+      <c r="G158" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>55</v>
+      </c>
+      <c r="C159" t="s">
+        <v>125</v>
+      </c>
+      <c r="D159">
+        <v>2346605</v>
+      </c>
+      <c r="E159" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" t="s">
+        <v>178</v>
+      </c>
+      <c r="G159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>125</v>
+      </c>
+      <c r="D160">
+        <v>2055673</v>
+      </c>
+      <c r="E160" t="s">
+        <v>152</v>
+      </c>
+      <c r="F160" t="s">
+        <v>179</v>
+      </c>
+      <c r="G160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>56</v>
+      </c>
+      <c r="C161" t="s">
+        <v>126</v>
+      </c>
+      <c r="D161">
+        <v>3800000</v>
+      </c>
+      <c r="E161" t="s">
+        <v>154</v>
+      </c>
+      <c r="F161" t="s">
+        <v>172</v>
+      </c>
+      <c r="G161" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>56</v>
+      </c>
+      <c r="C162" t="s">
+        <v>126</v>
+      </c>
+      <c r="D162">
+        <v>3226068</v>
+      </c>
+      <c r="E162" t="s">
+        <v>152</v>
+      </c>
+      <c r="F162" t="s">
+        <v>173</v>
+      </c>
+      <c r="G162" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C163" t="s">
+        <v>126</v>
+      </c>
+      <c r="D163">
+        <v>2729902</v>
+      </c>
+      <c r="E163" t="s">
+        <v>152</v>
+      </c>
+      <c r="F163" t="s">
+        <v>174</v>
+      </c>
+      <c r="G163" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>126</v>
+      </c>
+      <c r="D164">
+        <v>2502679</v>
+      </c>
+      <c r="E164" t="s">
+        <v>152</v>
+      </c>
+      <c r="F164" t="s">
+        <v>178</v>
+      </c>
+      <c r="G164" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" t="s">
+        <v>127</v>
+      </c>
+      <c r="D165">
+        <v>694217</v>
+      </c>
+      <c r="E165" t="s">
+        <v>152</v>
+      </c>
+      <c r="F165" t="s">
+        <v>180</v>
+      </c>
+      <c r="G165" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>57</v>
+      </c>
+      <c r="C166" t="s">
+        <v>127</v>
+      </c>
+      <c r="D166">
+        <v>607011</v>
+      </c>
+      <c r="E166" t="s">
+        <v>152</v>
+      </c>
+      <c r="F166" t="s">
+        <v>177</v>
+      </c>
+      <c r="G166" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" t="s">
+        <v>128</v>
+      </c>
+      <c r="D167">
+        <v>1296696</v>
+      </c>
+      <c r="E167" t="s">
+        <v>152</v>
+      </c>
+      <c r="F167" t="s">
+        <v>175</v>
+      </c>
+      <c r="G167" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>58</v>
+      </c>
+      <c r="C168" t="s">
+        <v>128</v>
+      </c>
+      <c r="D168">
+        <v>1032188</v>
+      </c>
+      <c r="E168" t="s">
+        <v>152</v>
+      </c>
+      <c r="F168" t="s">
+        <v>176</v>
+      </c>
+      <c r="G168" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" t="s">
+        <v>129</v>
+      </c>
+      <c r="D169">
+        <v>1784133</v>
+      </c>
+      <c r="E169" t="s">
+        <v>152</v>
+      </c>
+      <c r="F169" t="s">
+        <v>175</v>
+      </c>
+      <c r="G169" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>59</v>
+      </c>
+      <c r="C170" t="s">
+        <v>129</v>
+      </c>
+      <c r="D170">
+        <v>1616174</v>
+      </c>
+      <c r="E170" t="s">
+        <v>152</v>
+      </c>
+      <c r="F170" t="s">
+        <v>176</v>
+      </c>
+      <c r="G170" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>60</v>
+      </c>
+      <c r="C171" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171">
+        <v>476063</v>
+      </c>
+      <c r="E171" t="s">
+        <v>152</v>
+      </c>
+      <c r="F171" t="s">
+        <v>180</v>
+      </c>
+      <c r="G171" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>61</v>
+      </c>
+      <c r="C172" t="s">
+        <v>131</v>
+      </c>
+      <c r="D172">
+        <v>638283</v>
+      </c>
+      <c r="E172" t="s">
+        <v>152</v>
+      </c>
+      <c r="F172" t="s">
+        <v>175</v>
+      </c>
+      <c r="G172" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>61</v>
+      </c>
+      <c r="C173" t="s">
+        <v>131</v>
+      </c>
+      <c r="D173">
+        <v>591028</v>
+      </c>
+      <c r="E173" t="s">
+        <v>152</v>
+      </c>
+      <c r="F173" t="s">
+        <v>176</v>
+      </c>
+      <c r="G173" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>61</v>
+      </c>
+      <c r="C174" t="s">
+        <v>131</v>
+      </c>
+      <c r="D174">
+        <v>528207</v>
+      </c>
+      <c r="E174" t="s">
+        <v>152</v>
+      </c>
+      <c r="F174" t="s">
+        <v>180</v>
+      </c>
+      <c r="G174" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>61</v>
+      </c>
+      <c r="C175" t="s">
+        <v>131</v>
+      </c>
+      <c r="D175">
+        <v>515323</v>
+      </c>
+      <c r="E175" t="s">
+        <v>152</v>
+      </c>
+      <c r="F175" t="s">
+        <v>177</v>
+      </c>
+      <c r="G175" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" t="s">
+        <v>132</v>
+      </c>
+      <c r="D176">
+        <v>2800750</v>
+      </c>
+      <c r="E176" t="s">
+        <v>154</v>
+      </c>
+      <c r="F176" t="s">
+        <v>172</v>
+      </c>
+      <c r="G176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>62</v>
+      </c>
+      <c r="C177" t="s">
+        <v>132</v>
+      </c>
+      <c r="D177">
+        <v>2200329</v>
+      </c>
+      <c r="E177" t="s">
+        <v>152</v>
+      </c>
+      <c r="F177" t="s">
+        <v>173</v>
+      </c>
+      <c r="G177" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>62</v>
+      </c>
+      <c r="C178" t="s">
+        <v>132</v>
+      </c>
+      <c r="D178">
+        <v>1739268</v>
+      </c>
+      <c r="E178" t="s">
+        <v>152</v>
+      </c>
+      <c r="F178" t="s">
+        <v>178</v>
+      </c>
+      <c r="G178" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>62</v>
+      </c>
+      <c r="C179" t="s">
+        <v>132</v>
+      </c>
+      <c r="D179">
+        <v>1647750</v>
+      </c>
+      <c r="E179" t="s">
+        <v>152</v>
+      </c>
+      <c r="F179" t="s">
+        <v>179</v>
+      </c>
+      <c r="G179" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>133</v>
+      </c>
+      <c r="D180">
+        <v>1770690</v>
+      </c>
+      <c r="E180" t="s">
+        <v>152</v>
+      </c>
+      <c r="F180" t="s">
+        <v>178</v>
+      </c>
+      <c r="G180" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>63</v>
+      </c>
+      <c r="C181" t="s">
+        <v>133</v>
+      </c>
+      <c r="D181">
+        <v>1706250</v>
+      </c>
+      <c r="E181" t="s">
+        <v>152</v>
+      </c>
+      <c r="F181" t="s">
+        <v>179</v>
+      </c>
+      <c r="G181" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" t="s">
+        <v>134</v>
+      </c>
+      <c r="D182">
+        <v>588516</v>
+      </c>
+      <c r="E182" t="s">
+        <v>152</v>
+      </c>
+      <c r="F182" t="s">
+        <v>177</v>
+      </c>
+      <c r="G182" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>64</v>
+      </c>
+      <c r="C183" t="s">
+        <v>134</v>
+      </c>
+      <c r="D183">
+        <v>521625</v>
+      </c>
+      <c r="E183" t="s">
+        <v>152</v>
+      </c>
+      <c r="F183" t="s">
+        <v>181</v>
+      </c>
+      <c r="G183" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>65</v>
+      </c>
+      <c r="C184" t="s">
+        <v>135</v>
+      </c>
+      <c r="D184">
+        <v>1842750</v>
+      </c>
+      <c r="E184" t="s">
+        <v>152</v>
+      </c>
+      <c r="F184" t="s">
+        <v>178</v>
+      </c>
+      <c r="G184" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
+        <v>66</v>
+      </c>
+      <c r="C185" t="s">
+        <v>136</v>
+      </c>
+      <c r="D185">
+        <v>1145906</v>
+      </c>
+      <c r="E185" t="s">
+        <v>152</v>
+      </c>
+      <c r="F185" t="s">
+        <v>175</v>
+      </c>
+      <c r="G185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>66</v>
+      </c>
+      <c r="C186" t="s">
+        <v>136</v>
+      </c>
+      <c r="D186">
+        <v>993822</v>
+      </c>
+      <c r="E186" t="s">
+        <v>152</v>
+      </c>
+      <c r="F186" t="s">
+        <v>182</v>
+      </c>
+      <c r="G186" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>67</v>
+      </c>
+      <c r="C187" t="s">
+        <v>137</v>
+      </c>
+      <c r="D187">
+        <v>531136</v>
+      </c>
+      <c r="E187" t="s">
+        <v>152</v>
+      </c>
+      <c r="F187" t="s">
+        <v>180</v>
+      </c>
+      <c r="G187" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>68</v>
+      </c>
+      <c r="C188" t="s">
+        <v>138</v>
+      </c>
+      <c r="D188">
+        <v>654552</v>
+      </c>
+      <c r="E188" t="s">
+        <v>152</v>
+      </c>
+      <c r="F188" t="s">
+        <v>180</v>
+      </c>
+      <c r="G188" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>69</v>
+      </c>
+      <c r="C189" t="s">
+        <v>139</v>
+      </c>
+      <c r="D189">
+        <v>12940</v>
+      </c>
+      <c r="E189" t="s">
+        <v>152</v>
+      </c>
+      <c r="F189" t="s">
+        <v>159</v>
+      </c>
+      <c r="G189" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>69</v>
+      </c>
+      <c r="C190" t="s">
+        <v>139</v>
+      </c>
+      <c r="D190">
+        <v>12146</v>
+      </c>
+      <c r="E190" t="s">
+        <v>152</v>
+      </c>
+      <c r="F190" t="s">
+        <v>166</v>
+      </c>
+      <c r="G190" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>69</v>
+      </c>
+      <c r="C191" t="s">
+        <v>139</v>
+      </c>
+      <c r="D191">
+        <v>10344</v>
+      </c>
+      <c r="E191" t="s">
+        <v>152</v>
+      </c>
+      <c r="F191" t="s">
+        <v>167</v>
+      </c>
+      <c r="G191" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>70</v>
+      </c>
+      <c r="C192" t="s">
+        <v>140</v>
+      </c>
+      <c r="D192">
+        <v>13652</v>
+      </c>
+      <c r="E192" t="s">
+        <v>152</v>
+      </c>
+      <c r="F192" t="s">
+        <v>159</v>
+      </c>
+      <c r="G192" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" t="s">
+        <v>70</v>
+      </c>
+      <c r="C193" t="s">
+        <v>140</v>
+      </c>
+      <c r="D193">
+        <v>12238</v>
+      </c>
+      <c r="E193" t="s">
+        <v>152</v>
+      </c>
+      <c r="F193" t="s">
+        <v>166</v>
+      </c>
+      <c r="G193" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" t="s">
+        <v>71</v>
+      </c>
+      <c r="C194" t="s">
+        <v>141</v>
+      </c>
+      <c r="D194">
+        <v>23715</v>
+      </c>
+      <c r="E194" t="s">
+        <v>152</v>
+      </c>
+      <c r="F194" t="s">
+        <v>159</v>
+      </c>
+      <c r="G194" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" t="s">
+        <v>71</v>
+      </c>
+      <c r="C195" t="s">
+        <v>141</v>
+      </c>
+      <c r="D195">
+        <v>21449</v>
+      </c>
+      <c r="E195" t="s">
+        <v>152</v>
+      </c>
+      <c r="F195" t="s">
+        <v>166</v>
+      </c>
+      <c r="G195" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+      <c r="C196" t="s">
+        <v>142</v>
+      </c>
+      <c r="D196">
+        <v>14965</v>
+      </c>
+      <c r="E196" t="s">
+        <v>152</v>
+      </c>
+      <c r="F196" t="s">
+        <v>159</v>
+      </c>
+      <c r="G196" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" t="s">
+        <v>72</v>
+      </c>
+      <c r="C197" t="s">
+        <v>142</v>
+      </c>
+      <c r="D197">
+        <v>12435</v>
+      </c>
+      <c r="E197" t="s">
+        <v>152</v>
+      </c>
+      <c r="F197" t="s">
+        <v>166</v>
+      </c>
+      <c r="G197" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" t="s">
+        <v>73</v>
+      </c>
+      <c r="C198" t="s">
+        <v>143</v>
+      </c>
+      <c r="D198">
+        <v>15117</v>
+      </c>
+      <c r="E198" t="s">
+        <v>152</v>
+      </c>
+      <c r="F198" t="s">
+        <v>159</v>
+      </c>
+      <c r="G198" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" t="s">
+        <v>73</v>
+      </c>
+      <c r="C199" t="s">
+        <v>143</v>
+      </c>
+      <c r="D199">
+        <v>12483</v>
+      </c>
+      <c r="E199" t="s">
+        <v>152</v>
+      </c>
+      <c r="F199" t="s">
+        <v>166</v>
+      </c>
+      <c r="G199" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>74</v>
+      </c>
+      <c r="C200" t="s">
+        <v>144</v>
+      </c>
+      <c r="D200">
+        <v>23449</v>
+      </c>
+      <c r="E200" t="s">
+        <v>152</v>
+      </c>
+      <c r="F200" t="s">
+        <v>159</v>
+      </c>
+      <c r="G200" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>74</v>
+      </c>
+      <c r="C201" t="s">
+        <v>144</v>
+      </c>
+      <c r="D201">
+        <v>19050</v>
+      </c>
+      <c r="E201" t="s">
+        <v>152</v>
+      </c>
+      <c r="F201" t="s">
+        <v>166</v>
+      </c>
+      <c r="G201" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>75</v>
+      </c>
+      <c r="C202" t="s">
+        <v>145</v>
+      </c>
+      <c r="D202">
+        <v>30297</v>
+      </c>
+      <c r="E202" t="s">
+        <v>152</v>
+      </c>
+      <c r="F202" t="s">
+        <v>158</v>
+      </c>
+      <c r="G202" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>75</v>
+      </c>
+      <c r="C203" t="s">
+        <v>145</v>
+      </c>
+      <c r="D203">
+        <v>29558</v>
+      </c>
+      <c r="E203" t="s">
+        <v>152</v>
+      </c>
+      <c r="F203" t="s">
+        <v>159</v>
+      </c>
+      <c r="G203" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>75</v>
+      </c>
+      <c r="C204" t="s">
+        <v>145</v>
+      </c>
+      <c r="D204">
+        <v>22679</v>
+      </c>
+      <c r="E204" t="s">
+        <v>152</v>
+      </c>
+      <c r="F204" t="s">
+        <v>166</v>
+      </c>
+      <c r="G204" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" t="s">
+        <v>76</v>
+      </c>
+      <c r="C205" t="s">
+        <v>146</v>
+      </c>
+      <c r="D205">
+        <v>69220</v>
+      </c>
+      <c r="E205" t="s">
+        <v>152</v>
+      </c>
+      <c r="F205" t="s">
+        <v>155</v>
+      </c>
+      <c r="G205" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>76</v>
+      </c>
+      <c r="C206" t="s">
+        <v>146</v>
+      </c>
+      <c r="D206">
+        <v>67531</v>
+      </c>
+      <c r="E206" t="s">
+        <v>152</v>
+      </c>
+      <c r="F206" t="s">
+        <v>156</v>
+      </c>
+      <c r="G206" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>76</v>
+      </c>
+      <c r="C207" t="s">
+        <v>146</v>
+      </c>
+      <c r="D207">
+        <v>65883</v>
+      </c>
+      <c r="E207" t="s">
+        <v>152</v>
+      </c>
+      <c r="F207" t="s">
+        <v>157</v>
+      </c>
+      <c r="G207" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
+        <v>76</v>
+      </c>
+      <c r="C208" t="s">
+        <v>146</v>
+      </c>
+      <c r="D208">
+        <v>64276</v>
+      </c>
+      <c r="E208" t="s">
+        <v>152</v>
+      </c>
+      <c r="F208" t="s">
+        <v>158</v>
+      </c>
+      <c r="G208" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="s">
+        <v>76</v>
+      </c>
+      <c r="C209" t="s">
+        <v>146</v>
+      </c>
+      <c r="D209">
+        <v>62708</v>
+      </c>
+      <c r="E209" t="s">
+        <v>152</v>
+      </c>
+      <c r="F209" t="s">
+        <v>159</v>
+      </c>
+      <c r="G209" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
+        <v>76</v>
+      </c>
+      <c r="C210" t="s">
+        <v>146</v>
+      </c>
+      <c r="D210">
+        <v>56940</v>
+      </c>
+      <c r="E210" t="s">
+        <v>152</v>
+      </c>
+      <c r="F210" t="s">
+        <v>166</v>
+      </c>
+      <c r="G210" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>77</v>
+      </c>
+      <c r="C211" t="s">
+        <v>147</v>
+      </c>
+      <c r="D211">
+        <v>23516</v>
+      </c>
+      <c r="E211" t="s">
+        <v>152</v>
+      </c>
+      <c r="F211" t="s">
+        <v>159</v>
+      </c>
+      <c r="G211" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>77</v>
+      </c>
+      <c r="C212" t="s">
+        <v>147</v>
+      </c>
+      <c r="D212">
+        <v>19107</v>
+      </c>
+      <c r="E212" t="s">
+        <v>152</v>
+      </c>
+      <c r="F212" t="s">
+        <v>166</v>
+      </c>
+      <c r="G212" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>78</v>
+      </c>
+      <c r="C213" t="s">
+        <v>148</v>
+      </c>
+      <c r="D213">
+        <v>69227</v>
+      </c>
+      <c r="E213" t="s">
+        <v>152</v>
+      </c>
+      <c r="F213" t="s">
+        <v>176</v>
+      </c>
+      <c r="G213" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
+        <v>78</v>
+      </c>
+      <c r="C214" t="s">
+        <v>148</v>
+      </c>
+      <c r="D214">
+        <v>67538</v>
+      </c>
+      <c r="E214" t="s">
+        <v>152</v>
+      </c>
+      <c r="F214" t="s">
+        <v>183</v>
+      </c>
+      <c r="G214" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
+        <v>78</v>
+      </c>
+      <c r="C215" t="s">
+        <v>148</v>
+      </c>
+      <c r="D215">
+        <v>58794</v>
+      </c>
+      <c r="E215" t="s">
+        <v>152</v>
+      </c>
+      <c r="F215" t="s">
+        <v>180</v>
+      </c>
+      <c r="G215" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>78</v>
+      </c>
+      <c r="C216" t="s">
+        <v>148</v>
+      </c>
+      <c r="D216">
+        <v>57172</v>
+      </c>
+      <c r="E216" t="s">
+        <v>152</v>
+      </c>
+      <c r="F216" t="s">
+        <v>177</v>
+      </c>
+      <c r="G216" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" t="s">
+        <v>149</v>
+      </c>
+      <c r="D217">
+        <v>121907</v>
+      </c>
+      <c r="E217" t="s">
+        <v>152</v>
+      </c>
+      <c r="F217" t="s">
+        <v>183</v>
+      </c>
+      <c r="G217" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
+        <v>80</v>
+      </c>
+      <c r="C218" t="s">
+        <v>150</v>
+      </c>
+      <c r="D218">
+        <v>73953</v>
+      </c>
+      <c r="E218" t="s">
+        <v>152</v>
+      </c>
+      <c r="F218" t="s">
+        <v>176</v>
+      </c>
+      <c r="G218" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>80</v>
+      </c>
+      <c r="C219" t="s">
+        <v>150</v>
+      </c>
+      <c r="D219">
+        <v>67755</v>
+      </c>
+      <c r="E219" t="s">
+        <v>152</v>
+      </c>
+      <c r="F219" t="s">
+        <v>183</v>
+      </c>
+      <c r="G219" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
+        <v>80</v>
+      </c>
+      <c r="C220" t="s">
+        <v>150</v>
+      </c>
+      <c r="D220">
+        <v>59243</v>
+      </c>
+      <c r="E220" t="s">
+        <v>152</v>
+      </c>
+      <c r="F220" t="s">
+        <v>180</v>
+      </c>
+      <c r="G220" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" t="s">
+        <v>81</v>
+      </c>
+      <c r="C221" t="s">
+        <v>151</v>
+      </c>
+      <c r="D221">
+        <v>82917</v>
+      </c>
+      <c r="E221" t="s">
+        <v>152</v>
+      </c>
+      <c r="F221" t="s">
+        <v>184</v>
+      </c>
+      <c r="G221" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="196">
   <si>
     <t>Marca</t>
   </si>
@@ -262,6 +262,21 @@
     <t>A1 Sport. S Edition 1.4 TFSI 5p S-tronic</t>
   </si>
   <si>
+    <t>A1 Sportback 1.4 TFSI 185cv 5p S-tronic</t>
+  </si>
+  <si>
+    <t>A1 Sportback 1.4 TFSI 5p S-tronic</t>
+  </si>
+  <si>
+    <t>A1 Sportback 1.8 TFSI 192cv 5p S-tronic</t>
+  </si>
+  <si>
+    <t>A3 1.6 3p</t>
+  </si>
+  <si>
+    <t>A3 1.6 3p Aut.</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -472,15 +487,27 @@
     <t>008210-4</t>
   </si>
   <si>
+    <t>008174-4</t>
+  </si>
+  <si>
+    <t>008173-6</t>
+  </si>
+  <si>
+    <t>008204-0</t>
+  </si>
+  <si>
+    <t>008032-2</t>
+  </si>
+  <si>
+    <t>008056-0</t>
+  </si>
+  <si>
     <t>Gasolina</t>
   </si>
   <si>
     <t>Diesel</t>
   </si>
   <si>
-    <t>KM a Gasolina</t>
-  </si>
-  <si>
     <t>1999</t>
   </si>
   <si>
@@ -569,6 +596,9 @@
   </si>
   <si>
     <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -929,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -966,19 +996,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>27313</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -989,19 +1019,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>21558</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1012,19 +1042,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>14581</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1035,19 +1065,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>13265</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1058,19 +1088,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>21581</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1081,19 +1111,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7">
         <v>17680</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1104,19 +1134,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>17248</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1127,19 +1157,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>13550</v>
       </c>
       <c r="E9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1150,19 +1180,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>29872</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1173,19 +1203,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D11">
         <v>29143</v>
       </c>
       <c r="E11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1196,19 +1226,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>23404</v>
       </c>
       <c r="E12" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G12" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1219,19 +1249,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>22833</v>
       </c>
       <c r="E13" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1242,19 +1272,19 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>22449</v>
       </c>
       <c r="E14" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1265,19 +1295,19 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>18647</v>
       </c>
       <c r="E15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1288,19 +1318,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <v>18192</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1311,19 +1341,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D17">
         <v>92142</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1334,19 +1364,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D18">
         <v>89894</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1357,19 +1387,19 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D19">
         <v>87701</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1380,19 +1410,19 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D20">
         <v>19511</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1403,19 +1433,19 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>18466</v>
       </c>
       <c r="E21" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1426,19 +1456,19 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D22">
         <v>15931</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F22" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G22" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1449,19 +1479,19 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D23">
         <v>24925</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1472,19 +1502,19 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D24">
         <v>24317</v>
       </c>
       <c r="E24" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1495,19 +1525,19 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D25">
         <v>19754</v>
       </c>
       <c r="E25" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1518,19 +1548,19 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>104853</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F26" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G26" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1541,19 +1571,19 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>32424</v>
       </c>
       <c r="E27" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G27" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1564,19 +1594,19 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <v>49978</v>
       </c>
       <c r="E28" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G28" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1587,19 +1617,19 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D29">
         <v>45101</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G29" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1610,19 +1640,19 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D30">
         <v>74355</v>
       </c>
       <c r="E30" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G30" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1633,19 +1663,19 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>71998</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F31" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G31" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1656,19 +1686,19 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D32">
         <v>75561</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G32" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1679,19 +1709,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33">
         <v>70007</v>
       </c>
       <c r="E33" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G33" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1702,19 +1732,19 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>58514</v>
       </c>
       <c r="E34" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1725,19 +1755,19 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D35">
         <v>57086</v>
       </c>
       <c r="E35" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G35" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1748,19 +1778,19 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>29151</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F36" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1771,19 +1801,19 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>28440</v>
       </c>
       <c r="E37" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F37" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1794,19 +1824,19 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D38">
         <v>27102</v>
       </c>
       <c r="E38" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F38" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1817,19 +1847,19 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D39">
         <v>19575</v>
       </c>
       <c r="E39" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F39" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1840,19 +1870,19 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D40">
         <v>13455</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F40" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G40" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1863,19 +1893,19 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>11701</v>
       </c>
       <c r="E41" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G41" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1886,19 +1916,19 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D42">
         <v>28869</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F42" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1909,19 +1939,19 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D43">
         <v>28164</v>
       </c>
       <c r="E43" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1932,19 +1962,19 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D44">
         <v>89797</v>
       </c>
       <c r="E44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G44" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1955,19 +1985,19 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <v>86004</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1978,19 +2008,19 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D46">
         <v>83906</v>
       </c>
       <c r="E46" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G46" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2001,19 +2031,19 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D47">
         <v>81859</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G47" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2024,19 +2054,19 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D48">
         <v>71424</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2047,19 +2077,19 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D49">
         <v>8070</v>
       </c>
       <c r="E49" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F49" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="G49" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2070,19 +2100,19 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D50">
         <v>7072</v>
       </c>
       <c r="E50" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="G50" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2093,19 +2123,19 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D51">
         <v>133185</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F51" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G51" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2116,19 +2146,19 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D52">
         <v>129936</v>
       </c>
       <c r="E52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G52" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2139,19 +2169,19 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D53">
         <v>92099</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G53" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2162,19 +2192,19 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D54">
         <v>41220</v>
       </c>
       <c r="E54" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F54" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2185,19 +2215,19 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D55">
         <v>32289</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F55" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G55" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2208,19 +2238,19 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D56">
         <v>27713</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G56" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2231,19 +2261,19 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D57">
         <v>426859</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G57" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2254,19 +2284,19 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D58">
         <v>384365</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F58" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G58" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2277,19 +2307,19 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59">
         <v>332825</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F59" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2300,19 +2330,19 @@
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D60">
         <v>396648</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2323,19 +2353,19 @@
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D61">
         <v>351603</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2346,19 +2376,19 @@
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D62">
         <v>294624</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F62" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G62" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2369,19 +2399,19 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D63">
         <v>453297</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G63" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2392,19 +2422,19 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D64">
         <v>401677</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F64" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G64" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2415,19 +2445,19 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D65">
         <v>348246</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F65" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G65" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2438,19 +2468,19 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D66">
         <v>25397</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F66" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G66" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2461,19 +2491,19 @@
         <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D67">
         <v>21995</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F67" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G67" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2484,19 +2514,19 @@
         <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D68">
         <v>18798</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F68" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G68" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2507,19 +2537,19 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D69">
         <v>18158</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F69" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G69" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2530,19 +2560,19 @@
         <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D70">
         <v>16980</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F70" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G70" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2553,19 +2583,19 @@
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D71">
         <v>27427</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G71" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2576,19 +2606,19 @@
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D72">
         <v>25605</v>
       </c>
       <c r="E72" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F72" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G72" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2599,19 +2629,19 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D73">
         <v>21492</v>
       </c>
       <c r="E73" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G73" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2622,19 +2652,19 @@
         <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D74">
         <v>19903</v>
       </c>
       <c r="E74" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F74" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G74" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2645,19 +2675,19 @@
         <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D75">
         <v>19231</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F75" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G75" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2668,19 +2698,19 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D76">
         <v>15514</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G76" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2691,19 +2721,19 @@
         <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D77">
         <v>14842</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F77" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G77" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2714,19 +2744,19 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D78">
         <v>12659</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F78" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G78" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2737,19 +2767,19 @@
         <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D79">
         <v>12058</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G79" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2760,19 +2790,19 @@
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D80">
         <v>11358</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G80" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2783,19 +2813,19 @@
         <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D81">
         <v>9903</v>
       </c>
       <c r="E81" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F81" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G81" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2806,19 +2836,19 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D82">
         <v>14608</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F82" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G82" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2829,19 +2859,19 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D83">
         <v>13421</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G83" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2852,19 +2882,19 @@
         <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D84">
         <v>12439</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G84" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2875,19 +2905,19 @@
         <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D85">
         <v>11373</v>
       </c>
       <c r="E85" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G85" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2898,19 +2928,19 @@
         <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D86">
         <v>10192</v>
       </c>
       <c r="E86" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G86" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2921,19 +2951,19 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D87">
         <v>9297</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F87" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G87" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2944,19 +2974,19 @@
         <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D88">
         <v>12164</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G88" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2967,19 +2997,19 @@
         <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D89">
         <v>11236</v>
       </c>
       <c r="E89" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G89" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2990,19 +3020,19 @@
         <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D90">
         <v>9800</v>
       </c>
       <c r="E90" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G90" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3013,19 +3043,19 @@
         <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D91">
         <v>9324</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F91" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G91" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3036,19 +3066,19 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D92">
         <v>25330</v>
       </c>
       <c r="E92" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F92" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3059,19 +3089,19 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D93">
         <v>24712</v>
       </c>
       <c r="E93" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G93" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3082,19 +3112,19 @@
         <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D94">
         <v>16727</v>
       </c>
       <c r="E94" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G94" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3105,19 +3135,19 @@
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D95">
         <v>13972</v>
       </c>
       <c r="E95" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G95" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3128,19 +3158,19 @@
         <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D96">
         <v>13585</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F96" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G96" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3151,19 +3181,19 @@
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D97">
         <v>16655</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F97" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G97" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3174,19 +3204,19 @@
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D98">
         <v>14777</v>
       </c>
       <c r="E98" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F98" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G98" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3197,19 +3227,19 @@
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D99">
         <v>12873</v>
       </c>
       <c r="E99" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F99" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G99" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3220,19 +3250,19 @@
         <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D100">
         <v>19837</v>
       </c>
       <c r="E100" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F100" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G100" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3243,19 +3273,19 @@
         <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D101">
         <v>13972</v>
       </c>
       <c r="E101" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G101" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3266,19 +3296,19 @@
         <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D102">
         <v>14311</v>
       </c>
       <c r="E102" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F102" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G102" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3289,19 +3319,19 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D103">
         <v>12443</v>
       </c>
       <c r="E103" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="F103" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G103" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3312,19 +3342,19 @@
         <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D104">
         <v>6442</v>
       </c>
       <c r="E104" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F104" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G104" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3335,19 +3365,19 @@
         <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D105">
         <v>6095</v>
       </c>
       <c r="E105" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F105" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G105" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3358,19 +3388,19 @@
         <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D106">
         <v>5884</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F106" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G106" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3381,19 +3411,19 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D107">
         <v>5680</v>
       </c>
       <c r="E107" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F107" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G107" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3404,19 +3434,19 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D108">
         <v>5955</v>
       </c>
       <c r="E108" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F108" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G108" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3427,19 +3457,19 @@
         <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D109">
         <v>5298</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F109" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G109" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3450,19 +3480,19 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D110">
         <v>5168</v>
       </c>
       <c r="E110" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F110" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G110" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3473,19 +3503,19 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D111">
         <v>4546</v>
       </c>
       <c r="E111" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F111" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G111" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3496,19 +3526,19 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D112">
         <v>4415</v>
       </c>
       <c r="E112" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F112" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G112" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3519,19 +3549,19 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D113">
         <v>3607</v>
       </c>
       <c r="E113" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F113" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G113" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3542,19 +3572,19 @@
         <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D114">
         <v>5607</v>
       </c>
       <c r="E114" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F114" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G114" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3565,19 +3595,19 @@
         <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D115">
         <v>5281</v>
       </c>
       <c r="E115" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F115" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G115" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3588,19 +3618,19 @@
         <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D116">
         <v>4945</v>
       </c>
       <c r="E116" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F116" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G116" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3611,19 +3641,19 @@
         <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D117">
         <v>4532</v>
       </c>
       <c r="E117" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F117" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G117" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3634,19 +3664,19 @@
         <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D118">
         <v>3838</v>
       </c>
       <c r="E118" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F118" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G118" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3657,19 +3687,19 @@
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D119">
         <v>3291</v>
       </c>
       <c r="E119" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F119" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G119" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3680,19 +3710,19 @@
         <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D120">
         <v>5858</v>
       </c>
       <c r="E120" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F120" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G120" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3703,19 +3733,19 @@
         <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D121">
         <v>5699</v>
       </c>
       <c r="E121" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F121" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G121" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3726,19 +3756,19 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D122">
         <v>5481</v>
       </c>
       <c r="E122" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F122" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G122" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3749,19 +3779,19 @@
         <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D123">
         <v>4160</v>
       </c>
       <c r="E123" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F123" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G123" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3772,19 +3802,19 @@
         <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D124">
         <v>4058</v>
       </c>
       <c r="E124" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F124" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G124" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3795,19 +3825,19 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D125">
         <v>3746</v>
       </c>
       <c r="E125" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F125" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G125" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3818,19 +3848,19 @@
         <v>45</v>
       </c>
       <c r="C126" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D126">
         <v>3569</v>
       </c>
       <c r="E126" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F126" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G126" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3841,19 +3871,19 @@
         <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D127">
         <v>3442</v>
       </c>
       <c r="E127" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F127" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G127" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3864,19 +3894,19 @@
         <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D128">
         <v>3284</v>
       </c>
       <c r="E128" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G128" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3887,19 +3917,19 @@
         <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D129">
         <v>2840</v>
       </c>
       <c r="E129" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F129" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G129" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3910,19 +3940,19 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D130">
         <v>2401</v>
       </c>
       <c r="E130" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F130" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G130" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3933,19 +3963,19 @@
         <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D131">
         <v>5876</v>
       </c>
       <c r="E131" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F131" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G131" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3956,19 +3986,19 @@
         <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D132">
         <v>5732</v>
       </c>
       <c r="E132" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F132" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G132" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3979,19 +4009,19 @@
         <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D133">
         <v>4374</v>
       </c>
       <c r="E133" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F133" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G133" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4002,19 +4032,19 @@
         <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D134">
         <v>7989</v>
       </c>
       <c r="E134" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F134" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G134" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4025,19 +4055,19 @@
         <v>47</v>
       </c>
       <c r="C135" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D135">
         <v>7146</v>
       </c>
       <c r="E135" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F135" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G135" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4048,19 +4078,19 @@
         <v>47</v>
       </c>
       <c r="C136" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D136">
         <v>6889</v>
       </c>
       <c r="E136" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G136" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4071,19 +4101,19 @@
         <v>47</v>
       </c>
       <c r="C137" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D137">
         <v>6037</v>
       </c>
       <c r="E137" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F137" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G137" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4094,19 +4124,19 @@
         <v>47</v>
       </c>
       <c r="C138" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D138">
         <v>4876</v>
       </c>
       <c r="E138" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F138" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G138" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4117,19 +4147,19 @@
         <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D139">
         <v>4281</v>
       </c>
       <c r="E139" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F139" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G139" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4140,19 +4170,19 @@
         <v>48</v>
       </c>
       <c r="C140" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D140">
         <v>6241</v>
       </c>
       <c r="E140" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F140" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G140" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4163,19 +4193,19 @@
         <v>48</v>
       </c>
       <c r="C141" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D141">
         <v>6088</v>
       </c>
       <c r="E141" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F141" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G141" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4186,19 +4216,19 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D142">
         <v>5939</v>
       </c>
       <c r="E142" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F142" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G142" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4209,19 +4239,19 @@
         <v>49</v>
       </c>
       <c r="C143" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D143">
         <v>5967</v>
       </c>
       <c r="E143" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F143" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G143" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4232,19 +4262,19 @@
         <v>49</v>
       </c>
       <c r="C144" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D144">
         <v>5821</v>
       </c>
       <c r="E144" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F144" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G144" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4255,19 +4285,19 @@
         <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D145">
         <v>5569</v>
       </c>
       <c r="E145" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F145" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G145" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4278,19 +4308,19 @@
         <v>49</v>
       </c>
       <c r="C146" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D146">
         <v>4635</v>
       </c>
       <c r="E146" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F146" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G146" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4301,19 +4331,19 @@
         <v>49</v>
       </c>
       <c r="C147" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D147">
         <v>4206</v>
       </c>
       <c r="E147" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F147" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G147" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4324,19 +4354,19 @@
         <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D148">
         <v>4005</v>
       </c>
       <c r="E148" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F148" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G148" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4347,19 +4377,19 @@
         <v>50</v>
       </c>
       <c r="C149" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D149">
         <v>3600000</v>
       </c>
       <c r="E149" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F149" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G149" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4370,19 +4400,19 @@
         <v>50</v>
       </c>
       <c r="C150" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D150">
         <v>3228897</v>
       </c>
       <c r="E150" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F150" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G150" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4393,19 +4423,19 @@
         <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D151">
         <v>3070680</v>
       </c>
       <c r="E151" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F151" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G151" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4416,19 +4446,19 @@
         <v>51</v>
       </c>
       <c r="C152" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D152">
         <v>3900000</v>
       </c>
       <c r="E152" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F152" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G152" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4439,19 +4469,19 @@
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D153">
         <v>3625334</v>
       </c>
       <c r="E153" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G153" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4462,19 +4492,19 @@
         <v>52</v>
       </c>
       <c r="C154" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D154">
         <v>1214247</v>
       </c>
       <c r="E154" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G154" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4485,19 +4515,19 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D155">
         <v>946995</v>
       </c>
       <c r="E155" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F155" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G155" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4508,19 +4538,19 @@
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D156">
         <v>617791</v>
       </c>
       <c r="E156" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F156" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G156" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4531,19 +4561,19 @@
         <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D157">
         <v>4493874</v>
       </c>
       <c r="E157" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F157" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G157" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4554,19 +4584,19 @@
         <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D158">
         <v>4142252</v>
       </c>
       <c r="E158" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F158" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G158" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4577,19 +4607,19 @@
         <v>55</v>
       </c>
       <c r="C159" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D159">
         <v>2346605</v>
       </c>
       <c r="E159" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G159" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4600,19 +4630,19 @@
         <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D160">
         <v>2055673</v>
       </c>
       <c r="E160" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F160" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G160" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4623,19 +4653,19 @@
         <v>56</v>
       </c>
       <c r="C161" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D161">
         <v>3800000</v>
       </c>
       <c r="E161" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F161" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G161" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4646,19 +4676,19 @@
         <v>56</v>
       </c>
       <c r="C162" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D162">
         <v>3226068</v>
       </c>
       <c r="E162" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F162" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G162" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4669,19 +4699,19 @@
         <v>56</v>
       </c>
       <c r="C163" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D163">
         <v>2729902</v>
       </c>
       <c r="E163" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F163" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="G163" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4692,19 +4722,19 @@
         <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D164">
         <v>2502679</v>
       </c>
       <c r="E164" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F164" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G164" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4715,19 +4745,19 @@
         <v>57</v>
       </c>
       <c r="C165" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D165">
         <v>694217</v>
       </c>
       <c r="E165" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G165" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4738,19 +4768,19 @@
         <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D166">
         <v>607011</v>
       </c>
       <c r="E166" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F166" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G166" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4761,19 +4791,19 @@
         <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D167">
         <v>1296696</v>
       </c>
       <c r="E167" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F167" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G167" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4784,19 +4814,19 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D168">
         <v>1032188</v>
       </c>
       <c r="E168" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F168" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G168" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4807,19 +4837,19 @@
         <v>59</v>
       </c>
       <c r="C169" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D169">
         <v>1784133</v>
       </c>
       <c r="E169" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F169" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G169" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4830,19 +4860,19 @@
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D170">
         <v>1616174</v>
       </c>
       <c r="E170" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F170" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G170" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4853,19 +4883,19 @@
         <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D171">
         <v>476063</v>
       </c>
       <c r="E171" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F171" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G171" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4876,19 +4906,19 @@
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D172">
         <v>638283</v>
       </c>
       <c r="E172" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F172" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G172" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4899,19 +4929,19 @@
         <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D173">
         <v>591028</v>
       </c>
       <c r="E173" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F173" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G173" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4922,19 +4952,19 @@
         <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D174">
         <v>528207</v>
       </c>
       <c r="E174" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F174" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G174" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4945,19 +4975,19 @@
         <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D175">
         <v>515323</v>
       </c>
       <c r="E175" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F175" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G175" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4968,19 +4998,19 @@
         <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D176">
         <v>2800750</v>
       </c>
       <c r="E176" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F176" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G176" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4991,19 +5021,19 @@
         <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D177">
         <v>2200329</v>
       </c>
       <c r="E177" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F177" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G177" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5014,19 +5044,19 @@
         <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D178">
         <v>1739268</v>
       </c>
       <c r="E178" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F178" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G178" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5037,19 +5067,19 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D179">
         <v>1647750</v>
       </c>
       <c r="E179" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F179" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G179" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5060,19 +5090,19 @@
         <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D180">
         <v>1770690</v>
       </c>
       <c r="E180" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F180" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G180" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5083,19 +5113,19 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D181">
         <v>1706250</v>
       </c>
       <c r="E181" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F181" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G181" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5106,19 +5136,19 @@
         <v>64</v>
       </c>
       <c r="C182" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D182">
         <v>588516</v>
       </c>
       <c r="E182" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F182" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G182" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5129,19 +5159,19 @@
         <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D183">
         <v>521625</v>
       </c>
       <c r="E183" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F183" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G183" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5152,19 +5182,19 @@
         <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D184">
         <v>1842750</v>
       </c>
       <c r="E184" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F184" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G184" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5175,19 +5205,19 @@
         <v>66</v>
       </c>
       <c r="C185" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D185">
         <v>1145906</v>
       </c>
       <c r="E185" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F185" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G185" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5198,19 +5228,19 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D186">
         <v>993822</v>
       </c>
       <c r="E186" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F186" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G186" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5221,19 +5251,19 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D187">
         <v>531136</v>
       </c>
       <c r="E187" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F187" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G187" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5244,19 +5274,19 @@
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D188">
         <v>654552</v>
       </c>
       <c r="E188" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F188" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G188" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5267,19 +5297,19 @@
         <v>69</v>
       </c>
       <c r="C189" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D189">
         <v>12940</v>
       </c>
       <c r="E189" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F189" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G189" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5290,19 +5320,19 @@
         <v>69</v>
       </c>
       <c r="C190" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D190">
         <v>12146</v>
       </c>
       <c r="E190" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F190" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G190" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5313,19 +5343,19 @@
         <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D191">
         <v>10344</v>
       </c>
       <c r="E191" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F191" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G191" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5336,19 +5366,19 @@
         <v>70</v>
       </c>
       <c r="C192" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D192">
         <v>13652</v>
       </c>
       <c r="E192" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F192" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G192" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5359,19 +5389,19 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D193">
         <v>12238</v>
       </c>
       <c r="E193" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F193" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G193" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5382,19 +5412,19 @@
         <v>71</v>
       </c>
       <c r="C194" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D194">
         <v>23715</v>
       </c>
       <c r="E194" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F194" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G194" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5405,19 +5435,19 @@
         <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D195">
         <v>21449</v>
       </c>
       <c r="E195" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F195" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G195" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5428,19 +5458,19 @@
         <v>72</v>
       </c>
       <c r="C196" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D196">
         <v>14965</v>
       </c>
       <c r="E196" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F196" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G196" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5451,19 +5481,19 @@
         <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D197">
         <v>12435</v>
       </c>
       <c r="E197" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F197" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G197" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5474,19 +5504,19 @@
         <v>73</v>
       </c>
       <c r="C198" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D198">
         <v>15117</v>
       </c>
       <c r="E198" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F198" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G198" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5497,19 +5527,19 @@
         <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D199">
         <v>12483</v>
       </c>
       <c r="E199" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F199" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G199" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5520,19 +5550,19 @@
         <v>74</v>
       </c>
       <c r="C200" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D200">
         <v>23449</v>
       </c>
       <c r="E200" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F200" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G200" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5543,19 +5573,19 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D201">
         <v>19050</v>
       </c>
       <c r="E201" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F201" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G201" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5566,19 +5596,19 @@
         <v>75</v>
       </c>
       <c r="C202" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D202">
         <v>30297</v>
       </c>
       <c r="E202" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F202" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G202" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5589,19 +5619,19 @@
         <v>75</v>
       </c>
       <c r="C203" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D203">
         <v>29558</v>
       </c>
       <c r="E203" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F203" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G203" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5612,19 +5642,19 @@
         <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D204">
         <v>22679</v>
       </c>
       <c r="E204" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F204" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G204" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5635,19 +5665,19 @@
         <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D205">
         <v>69220</v>
       </c>
       <c r="E205" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F205" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G205" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5658,19 +5688,19 @@
         <v>76</v>
       </c>
       <c r="C206" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D206">
         <v>67531</v>
       </c>
       <c r="E206" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F206" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G206" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5681,19 +5711,19 @@
         <v>76</v>
       </c>
       <c r="C207" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D207">
         <v>65883</v>
       </c>
       <c r="E207" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F207" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G207" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5704,19 +5734,19 @@
         <v>76</v>
       </c>
       <c r="C208" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D208">
         <v>64276</v>
       </c>
       <c r="E208" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F208" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="G208" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5727,19 +5757,19 @@
         <v>76</v>
       </c>
       <c r="C209" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D209">
         <v>62708</v>
       </c>
       <c r="E209" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F209" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G209" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5750,19 +5780,19 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D210">
         <v>56940</v>
       </c>
       <c r="E210" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F210" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G210" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5773,19 +5803,19 @@
         <v>77</v>
       </c>
       <c r="C211" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D211">
         <v>23516</v>
       </c>
       <c r="E211" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F211" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="G211" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5796,19 +5826,19 @@
         <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D212">
         <v>19107</v>
       </c>
       <c r="E212" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F212" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="G212" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5819,19 +5849,19 @@
         <v>78</v>
       </c>
       <c r="C213" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D213">
         <v>69227</v>
       </c>
       <c r="E213" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F213" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G213" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5842,19 +5872,19 @@
         <v>78</v>
       </c>
       <c r="C214" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D214">
         <v>67538</v>
       </c>
       <c r="E214" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F214" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G214" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5865,19 +5895,19 @@
         <v>78</v>
       </c>
       <c r="C215" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D215">
         <v>58794</v>
       </c>
       <c r="E215" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F215" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G215" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5888,19 +5918,19 @@
         <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D216">
         <v>57172</v>
       </c>
       <c r="E216" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F216" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="G216" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5911,19 +5941,19 @@
         <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D217">
         <v>121907</v>
       </c>
       <c r="E217" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F217" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G217" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5934,19 +5964,19 @@
         <v>80</v>
       </c>
       <c r="C218" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D218">
         <v>73953</v>
       </c>
       <c r="E218" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F218" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G218" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5957,19 +5987,19 @@
         <v>80</v>
       </c>
       <c r="C219" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D219">
         <v>67755</v>
       </c>
       <c r="E219" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F219" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G219" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5980,19 +6010,19 @@
         <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D220">
         <v>59243</v>
       </c>
       <c r="E220" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F220" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G220" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6003,19 +6033,502 @@
         <v>81</v>
       </c>
       <c r="C221" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D221">
         <v>82917</v>
       </c>
       <c r="E221" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="F221" t="s">
+        <v>193</v>
+      </c>
+      <c r="G221" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>81</v>
+      </c>
+      <c r="C222" t="s">
+        <v>156</v>
+      </c>
+      <c r="D222">
+        <v>80534</v>
+      </c>
+      <c r="E222" t="s">
+        <v>162</v>
+      </c>
+      <c r="F222" t="s">
         <v>184</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G222" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" t="s">
+        <v>157</v>
+      </c>
+      <c r="D223">
+        <v>78233</v>
+      </c>
+      <c r="E223" t="s">
+        <v>162</v>
+      </c>
+      <c r="F223" t="s">
+        <v>191</v>
+      </c>
+      <c r="G223" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" t="s">
+        <v>82</v>
+      </c>
+      <c r="C224" t="s">
+        <v>157</v>
+      </c>
+      <c r="D224">
+        <v>68479</v>
+      </c>
+      <c r="E224" t="s">
+        <v>162</v>
+      </c>
+      <c r="F224" t="s">
         <v>185</v>
+      </c>
+      <c r="G224" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
+        <v>82</v>
+      </c>
+      <c r="C225" t="s">
+        <v>157</v>
+      </c>
+      <c r="D225">
+        <v>66808</v>
+      </c>
+      <c r="E225" t="s">
+        <v>162</v>
+      </c>
+      <c r="F225" t="s">
+        <v>192</v>
+      </c>
+      <c r="G225" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
+        <v>83</v>
+      </c>
+      <c r="C226" t="s">
+        <v>158</v>
+      </c>
+      <c r="D226">
+        <v>102322</v>
+      </c>
+      <c r="E226" t="s">
+        <v>162</v>
+      </c>
+      <c r="F226" t="s">
+        <v>194</v>
+      </c>
+      <c r="G226" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
+        <v>83</v>
+      </c>
+      <c r="C227" t="s">
+        <v>158</v>
+      </c>
+      <c r="D227">
+        <v>78592</v>
+      </c>
+      <c r="E227" t="s">
+        <v>162</v>
+      </c>
+      <c r="F227" t="s">
+        <v>193</v>
+      </c>
+      <c r="G227" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>83</v>
+      </c>
+      <c r="C228" t="s">
+        <v>158</v>
+      </c>
+      <c r="D228">
+        <v>76675</v>
+      </c>
+      <c r="E228" t="s">
+        <v>162</v>
+      </c>
+      <c r="F228" t="s">
+        <v>184</v>
+      </c>
+      <c r="G228" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
+        <v>83</v>
+      </c>
+      <c r="C229" t="s">
+        <v>158</v>
+      </c>
+      <c r="D229">
+        <v>72791</v>
+      </c>
+      <c r="E229" t="s">
+        <v>162</v>
+      </c>
+      <c r="F229" t="s">
+        <v>191</v>
+      </c>
+      <c r="G229" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
+        <v>83</v>
+      </c>
+      <c r="C230" t="s">
+        <v>158</v>
+      </c>
+      <c r="D230">
+        <v>68205</v>
+      </c>
+      <c r="E230" t="s">
+        <v>162</v>
+      </c>
+      <c r="F230" t="s">
+        <v>185</v>
+      </c>
+      <c r="G230" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" t="s">
+        <v>83</v>
+      </c>
+      <c r="C231" t="s">
+        <v>158</v>
+      </c>
+      <c r="D231">
+        <v>66541</v>
+      </c>
+      <c r="E231" t="s">
+        <v>162</v>
+      </c>
+      <c r="F231" t="s">
+        <v>192</v>
+      </c>
+      <c r="G231" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" t="s">
+        <v>84</v>
+      </c>
+      <c r="C232" t="s">
+        <v>159</v>
+      </c>
+      <c r="D232">
+        <v>122630</v>
+      </c>
+      <c r="E232" t="s">
+        <v>162</v>
+      </c>
+      <c r="F232" t="s">
+        <v>194</v>
+      </c>
+      <c r="G232" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>11</v>
+      </c>
+      <c r="B233" t="s">
+        <v>84</v>
+      </c>
+      <c r="C233" t="s">
+        <v>159</v>
+      </c>
+      <c r="D233">
+        <v>116902</v>
+      </c>
+      <c r="E233" t="s">
+        <v>162</v>
+      </c>
+      <c r="F233" t="s">
+        <v>193</v>
+      </c>
+      <c r="G233" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>11</v>
+      </c>
+      <c r="B234" t="s">
+        <v>84</v>
+      </c>
+      <c r="C234" t="s">
+        <v>159</v>
+      </c>
+      <c r="D234">
+        <v>107141</v>
+      </c>
+      <c r="E234" t="s">
+        <v>162</v>
+      </c>
+      <c r="F234" t="s">
+        <v>184</v>
+      </c>
+      <c r="G234" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" t="s">
+        <v>85</v>
+      </c>
+      <c r="C235" t="s">
+        <v>160</v>
+      </c>
+      <c r="D235">
+        <v>19755</v>
+      </c>
+      <c r="E235" t="s">
+        <v>162</v>
+      </c>
+      <c r="F235" t="s">
+        <v>171</v>
+      </c>
+      <c r="G235" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>11</v>
+      </c>
+      <c r="B236" t="s">
+        <v>85</v>
+      </c>
+      <c r="C236" t="s">
+        <v>160</v>
+      </c>
+      <c r="D236">
+        <v>18974</v>
+      </c>
+      <c r="E236" t="s">
+        <v>162</v>
+      </c>
+      <c r="F236" t="s">
+        <v>172</v>
+      </c>
+      <c r="G236" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" t="s">
+        <v>85</v>
+      </c>
+      <c r="C237" t="s">
+        <v>160</v>
+      </c>
+      <c r="D237">
+        <v>18511</v>
+      </c>
+      <c r="E237" t="s">
+        <v>162</v>
+      </c>
+      <c r="F237" t="s">
+        <v>173</v>
+      </c>
+      <c r="G237" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>11</v>
+      </c>
+      <c r="B238" t="s">
+        <v>85</v>
+      </c>
+      <c r="C238" t="s">
+        <v>160</v>
+      </c>
+      <c r="D238">
+        <v>16245</v>
+      </c>
+      <c r="E238" t="s">
+        <v>162</v>
+      </c>
+      <c r="F238" t="s">
+        <v>174</v>
+      </c>
+      <c r="G238" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>11</v>
+      </c>
+      <c r="B239" t="s">
+        <v>85</v>
+      </c>
+      <c r="C239" t="s">
+        <v>160</v>
+      </c>
+      <c r="D239">
+        <v>15235</v>
+      </c>
+      <c r="E239" t="s">
+        <v>162</v>
+      </c>
+      <c r="F239" t="s">
+        <v>164</v>
+      </c>
+      <c r="G239" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>11</v>
+      </c>
+      <c r="B240" t="s">
+        <v>86</v>
+      </c>
+      <c r="C240" t="s">
+        <v>161</v>
+      </c>
+      <c r="D240">
+        <v>21354</v>
+      </c>
+      <c r="E240" t="s">
+        <v>162</v>
+      </c>
+      <c r="F240" t="s">
+        <v>171</v>
+      </c>
+      <c r="G240" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>86</v>
+      </c>
+      <c r="C241" t="s">
+        <v>161</v>
+      </c>
+      <c r="D241">
+        <v>20443</v>
+      </c>
+      <c r="E241" t="s">
+        <v>162</v>
+      </c>
+      <c r="F241" t="s">
+        <v>172</v>
+      </c>
+      <c r="G241" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>11</v>
+      </c>
+      <c r="B242" t="s">
+        <v>86</v>
+      </c>
+      <c r="C242" t="s">
+        <v>161</v>
+      </c>
+      <c r="D242">
+        <v>19315</v>
+      </c>
+      <c r="E242" t="s">
+        <v>162</v>
+      </c>
+      <c r="F242" t="s">
+        <v>173</v>
+      </c>
+      <c r="G242" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Base_Fipe.xlsx
+++ b/Base_Fipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1837" uniqueCount="218">
   <si>
     <t>Marca</t>
   </si>
@@ -277,6 +277,36 @@
     <t>A3 1.6 3p Aut.</t>
   </si>
   <si>
+    <t>A3 1.6 5p</t>
+  </si>
+  <si>
+    <t>A3 1.6 5p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.6 8V 102cv 3p</t>
+  </si>
+  <si>
+    <t>A3 1.8 3p</t>
+  </si>
+  <si>
+    <t>A3 1.8 3p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.8 5p Aut.</t>
+  </si>
+  <si>
+    <t>A3 1.8 5p Mec.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 3p Aut./ Tip.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 3p Mec.</t>
+  </si>
+  <si>
+    <t>A3 1.8 Turbo 180cv 5p Aut./ Tip.</t>
+  </si>
+  <si>
     <t>006009-7</t>
   </si>
   <si>
@@ -502,6 +532,36 @@
     <t>008056-0</t>
   </si>
   <si>
+    <t>008040-3</t>
+  </si>
+  <si>
+    <t>008057-8</t>
+  </si>
+  <si>
+    <t>008116-7</t>
+  </si>
+  <si>
+    <t>008005-5</t>
+  </si>
+  <si>
+    <t>008043-8</t>
+  </si>
+  <si>
+    <t>008042-0</t>
+  </si>
+  <si>
+    <t>008041-1</t>
+  </si>
+  <si>
+    <t>008073-0</t>
+  </si>
+  <si>
+    <t>008074-8</t>
+  </si>
+  <si>
+    <t>008071-3</t>
+  </si>
+  <si>
     <t>Gasolina</t>
   </si>
   <si>
@@ -599,6 +659,12 @@
   </si>
   <si>
     <t>2018</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
   </si>
   <si>
     <t>junho de 2025</t>
@@ -959,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G242"/>
+  <dimension ref="A1:G306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -996,19 +1062,19 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D2">
         <v>27313</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F2" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1019,19 +1085,19 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D3">
         <v>21558</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1042,19 +1108,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D4">
         <v>14581</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1065,19 +1131,19 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>13265</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F5" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1088,19 +1154,19 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>21581</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1111,19 +1177,19 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>17680</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1134,19 +1200,19 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>17248</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1157,19 +1223,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>13550</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F9" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1180,19 +1246,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <v>29872</v>
       </c>
       <c r="E10" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1203,19 +1269,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>29143</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1226,19 +1292,19 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>23404</v>
       </c>
       <c r="E12" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G12" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1249,19 +1315,19 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>22833</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F13" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G13" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1272,19 +1338,19 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>22449</v>
       </c>
       <c r="E14" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G14" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1295,19 +1361,19 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>18647</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G15" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1318,19 +1384,19 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D16">
         <v>18192</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1341,19 +1407,19 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D17">
         <v>92142</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1364,19 +1430,19 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D18">
         <v>89894</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1387,19 +1453,19 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D19">
         <v>87701</v>
       </c>
       <c r="E19" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1410,19 +1476,19 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D20">
         <v>19511</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1433,19 +1499,19 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D21">
         <v>18466</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1456,19 +1522,19 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="D22">
         <v>15931</v>
       </c>
       <c r="E22" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1479,19 +1545,19 @@
         <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D23">
         <v>24925</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1502,19 +1568,19 @@
         <v>18</v>
       </c>
       <c r="C24" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D24">
         <v>24317</v>
       </c>
       <c r="E24" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1525,19 +1591,19 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D25">
         <v>19754</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F25" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1548,19 +1614,19 @@
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D26">
         <v>104853</v>
       </c>
       <c r="E26" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1571,19 +1637,19 @@
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D27">
         <v>32424</v>
       </c>
       <c r="E27" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1594,19 +1660,19 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D28">
         <v>49978</v>
       </c>
       <c r="E28" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1617,19 +1683,19 @@
         <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>45101</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F29" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1640,19 +1706,19 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <v>74355</v>
       </c>
       <c r="E30" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F30" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1663,19 +1729,19 @@
         <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="D31">
         <v>71998</v>
       </c>
       <c r="E31" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1686,19 +1752,19 @@
         <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D32">
         <v>75561</v>
       </c>
       <c r="E32" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1709,19 +1775,19 @@
         <v>22</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D33">
         <v>70007</v>
       </c>
       <c r="E33" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1732,19 +1798,19 @@
         <v>22</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D34">
         <v>58514</v>
       </c>
       <c r="E34" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G34" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1755,19 +1821,19 @@
         <v>22</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D35">
         <v>57086</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F35" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1778,19 +1844,19 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D36">
         <v>29151</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1801,19 +1867,19 @@
         <v>23</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D37">
         <v>28440</v>
       </c>
       <c r="E37" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1824,19 +1890,19 @@
         <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D38">
         <v>27102</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1847,19 +1913,19 @@
         <v>23</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D39">
         <v>19575</v>
       </c>
       <c r="E39" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F39" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G39" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1870,19 +1936,19 @@
         <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D40">
         <v>13455</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1893,19 +1959,19 @@
         <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D41">
         <v>11701</v>
       </c>
       <c r="E41" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1916,19 +1982,19 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D42">
         <v>28869</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1939,19 +2005,19 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D43">
         <v>28164</v>
       </c>
       <c r="E43" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F43" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G43" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1962,19 +2028,19 @@
         <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D44">
         <v>89797</v>
       </c>
       <c r="E44" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1985,19 +2051,19 @@
         <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D45">
         <v>86004</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F45" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G45" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2008,19 +2074,19 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D46">
         <v>83906</v>
       </c>
       <c r="E46" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F46" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G46" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2031,19 +2097,19 @@
         <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D47">
         <v>81859</v>
       </c>
       <c r="E47" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F47" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2054,19 +2120,19 @@
         <v>25</v>
       </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D48">
         <v>71424</v>
       </c>
       <c r="E48" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F48" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G48" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2077,19 +2143,19 @@
         <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D49">
         <v>8070</v>
       </c>
       <c r="E49" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2100,19 +2166,19 @@
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D50">
         <v>7072</v>
       </c>
       <c r="E50" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2123,19 +2189,19 @@
         <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D51">
         <v>133185</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G51" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2146,19 +2212,19 @@
         <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D52">
         <v>129936</v>
       </c>
       <c r="E52" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F52" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G52" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2169,19 +2235,19 @@
         <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D53">
         <v>92099</v>
       </c>
       <c r="E53" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F53" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2192,19 +2258,19 @@
         <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D54">
         <v>41220</v>
       </c>
       <c r="E54" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F54" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G54" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2215,19 +2281,19 @@
         <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D55">
         <v>32289</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F55" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G55" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2238,19 +2304,19 @@
         <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D56">
         <v>27713</v>
       </c>
       <c r="E56" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F56" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G56" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2261,19 +2327,19 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D57">
         <v>426859</v>
       </c>
       <c r="E57" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G57" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2284,19 +2350,19 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D58">
         <v>384365</v>
       </c>
       <c r="E58" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G58" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2307,19 +2373,19 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D59">
         <v>332825</v>
       </c>
       <c r="E59" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G59" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2330,19 +2396,19 @@
         <v>29</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D60">
         <v>396648</v>
       </c>
       <c r="E60" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G60" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2353,19 +2419,19 @@
         <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D61">
         <v>351603</v>
       </c>
       <c r="E61" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F61" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G61" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2376,19 +2442,19 @@
         <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D62">
         <v>294624</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2399,19 +2465,19 @@
         <v>30</v>
       </c>
       <c r="C63" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D63">
         <v>453297</v>
       </c>
       <c r="E63" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2422,19 +2488,19 @@
         <v>30</v>
       </c>
       <c r="C64" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D64">
         <v>401677</v>
       </c>
       <c r="E64" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G64" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2445,19 +2511,19 @@
         <v>30</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D65">
         <v>348246</v>
       </c>
       <c r="E65" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G65" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2468,19 +2534,19 @@
         <v>31</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D66">
         <v>25397</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G66" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2491,19 +2557,19 @@
         <v>31</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D67">
         <v>21995</v>
       </c>
       <c r="E67" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G67" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2514,19 +2580,19 @@
         <v>31</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D68">
         <v>18798</v>
       </c>
       <c r="E68" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G68" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2537,19 +2603,19 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D69">
         <v>18158</v>
       </c>
       <c r="E69" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G69" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2560,19 +2626,19 @@
         <v>31</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D70">
         <v>16980</v>
       </c>
       <c r="E70" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2583,19 +2649,19 @@
         <v>32</v>
       </c>
       <c r="C71" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D71">
         <v>27427</v>
       </c>
       <c r="E71" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G71" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2606,19 +2672,19 @@
         <v>32</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D72">
         <v>25605</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G72" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2629,19 +2695,19 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D73">
         <v>21492</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G73" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2652,19 +2718,19 @@
         <v>32</v>
       </c>
       <c r="C74" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D74">
         <v>19903</v>
       </c>
       <c r="E74" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G74" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2675,19 +2741,19 @@
         <v>32</v>
       </c>
       <c r="C75" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D75">
         <v>19231</v>
       </c>
       <c r="E75" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G75" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2698,19 +2764,19 @@
         <v>33</v>
       </c>
       <c r="C76" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D76">
         <v>15514</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G76" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2721,19 +2787,19 @@
         <v>33</v>
       </c>
       <c r="C77" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D77">
         <v>14842</v>
       </c>
       <c r="E77" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G77" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2744,19 +2810,19 @@
         <v>33</v>
       </c>
       <c r="C78" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D78">
         <v>12659</v>
       </c>
       <c r="E78" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G78" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2767,19 +2833,19 @@
         <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D79">
         <v>12058</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G79" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2790,19 +2856,19 @@
         <v>33</v>
       </c>
       <c r="C80" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D80">
         <v>11358</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F80" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G80" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2813,19 +2879,19 @@
         <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D81">
         <v>9903</v>
       </c>
       <c r="E81" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G81" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2836,19 +2902,19 @@
         <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D82">
         <v>14608</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G82" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2859,19 +2925,19 @@
         <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D83">
         <v>13421</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G83" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2882,19 +2948,19 @@
         <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D84">
         <v>12439</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F84" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G84" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2905,19 +2971,19 @@
         <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D85">
         <v>11373</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G85" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2928,19 +2994,19 @@
         <v>34</v>
       </c>
       <c r="C86" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D86">
         <v>10192</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F86" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G86" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2951,19 +3017,19 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D87">
         <v>9297</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G87" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2974,19 +3040,19 @@
         <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D88">
         <v>12164</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G88" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2997,19 +3063,19 @@
         <v>35</v>
       </c>
       <c r="C89" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D89">
         <v>11236</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F89" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G89" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3020,19 +3086,19 @@
         <v>35</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D90">
         <v>9800</v>
       </c>
       <c r="E90" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3043,19 +3109,19 @@
         <v>35</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D91">
         <v>9324</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F91" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G91" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3066,19 +3132,19 @@
         <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D92">
         <v>25330</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F92" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G92" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3089,19 +3155,19 @@
         <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D93">
         <v>24712</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G93" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3112,19 +3178,19 @@
         <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D94">
         <v>16727</v>
       </c>
       <c r="E94" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G94" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3135,19 +3201,19 @@
         <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D95">
         <v>13972</v>
       </c>
       <c r="E95" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G95" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3158,19 +3224,19 @@
         <v>37</v>
       </c>
       <c r="C96" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D96">
         <v>13585</v>
       </c>
       <c r="E96" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G96" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3181,19 +3247,19 @@
         <v>38</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D97">
         <v>16655</v>
       </c>
       <c r="E97" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G97" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3204,19 +3270,19 @@
         <v>38</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D98">
         <v>14777</v>
       </c>
       <c r="E98" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G98" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3227,19 +3293,19 @@
         <v>38</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D99">
         <v>12873</v>
       </c>
       <c r="E99" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G99" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3250,19 +3316,19 @@
         <v>39</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D100">
         <v>19837</v>
       </c>
       <c r="E100" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G100" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3273,19 +3339,19 @@
         <v>37</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D101">
         <v>13972</v>
       </c>
       <c r="E101" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G101" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3296,19 +3362,19 @@
         <v>39</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D102">
         <v>14311</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G102" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3319,19 +3385,19 @@
         <v>39</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D103">
         <v>12443</v>
       </c>
       <c r="E103" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G103" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3342,19 +3408,19 @@
         <v>40</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D104">
         <v>6442</v>
       </c>
       <c r="E104" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G104" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3365,19 +3431,19 @@
         <v>40</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D105">
         <v>6095</v>
       </c>
       <c r="E105" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G105" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3388,19 +3454,19 @@
         <v>40</v>
       </c>
       <c r="C106" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D106">
         <v>5884</v>
       </c>
       <c r="E106" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F106" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G106" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3411,19 +3477,19 @@
         <v>40</v>
       </c>
       <c r="C107" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D107">
         <v>5680</v>
       </c>
       <c r="E107" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F107" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G107" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3434,19 +3500,19 @@
         <v>41</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D108">
         <v>5955</v>
       </c>
       <c r="E108" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F108" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G108" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3457,19 +3523,19 @@
         <v>41</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D109">
         <v>5298</v>
       </c>
       <c r="E109" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F109" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G109" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3480,19 +3546,19 @@
         <v>41</v>
       </c>
       <c r="C110" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D110">
         <v>5168</v>
       </c>
       <c r="E110" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F110" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G110" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3503,19 +3569,19 @@
         <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D111">
         <v>4546</v>
       </c>
       <c r="E111" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G111" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3526,19 +3592,19 @@
         <v>41</v>
       </c>
       <c r="C112" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D112">
         <v>4415</v>
       </c>
       <c r="E112" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F112" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G112" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3549,19 +3615,19 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D113">
         <v>3607</v>
       </c>
       <c r="E113" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F113" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G113" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3572,19 +3638,19 @@
         <v>42</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D114">
         <v>5607</v>
       </c>
       <c r="E114" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F114" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G114" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3595,19 +3661,19 @@
         <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D115">
         <v>5281</v>
       </c>
       <c r="E115" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F115" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G115" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3618,19 +3684,19 @@
         <v>42</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D116">
         <v>4945</v>
       </c>
       <c r="E116" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F116" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G116" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3641,19 +3707,19 @@
         <v>42</v>
       </c>
       <c r="C117" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D117">
         <v>4532</v>
       </c>
       <c r="E117" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F117" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G117" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3664,19 +3730,19 @@
         <v>42</v>
       </c>
       <c r="C118" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D118">
         <v>3838</v>
       </c>
       <c r="E118" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F118" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G118" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3687,19 +3753,19 @@
         <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D119">
         <v>3291</v>
       </c>
       <c r="E119" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F119" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G119" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3710,19 +3776,19 @@
         <v>43</v>
       </c>
       <c r="C120" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D120">
         <v>5858</v>
       </c>
       <c r="E120" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F120" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G120" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3733,19 +3799,19 @@
         <v>43</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D121">
         <v>5699</v>
       </c>
       <c r="E121" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F121" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G121" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3756,19 +3822,19 @@
         <v>43</v>
       </c>
       <c r="C122" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D122">
         <v>5481</v>
       </c>
       <c r="E122" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F122" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G122" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3779,19 +3845,19 @@
         <v>44</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D123">
         <v>4160</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F123" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G123" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3802,19 +3868,19 @@
         <v>44</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D124">
         <v>4058</v>
       </c>
       <c r="E124" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F124" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G124" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3825,19 +3891,19 @@
         <v>44</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D125">
         <v>3746</v>
       </c>
       <c r="E125" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F125" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G125" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3848,19 +3914,19 @@
         <v>45</v>
       </c>
       <c r="C126" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D126">
         <v>3569</v>
       </c>
       <c r="E126" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F126" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G126" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3871,19 +3937,19 @@
         <v>45</v>
       </c>
       <c r="C127" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D127">
         <v>3442</v>
       </c>
       <c r="E127" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F127" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G127" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3894,19 +3960,19 @@
         <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D128">
         <v>3284</v>
       </c>
       <c r="E128" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F128" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G128" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3917,19 +3983,19 @@
         <v>45</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D129">
         <v>2840</v>
       </c>
       <c r="E129" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F129" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G129" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3940,19 +4006,19 @@
         <v>45</v>
       </c>
       <c r="C130" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D130">
         <v>2401</v>
       </c>
       <c r="E130" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F130" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G130" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3963,19 +4029,19 @@
         <v>46</v>
       </c>
       <c r="C131" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D131">
         <v>5876</v>
       </c>
       <c r="E131" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G131" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3986,19 +4052,19 @@
         <v>46</v>
       </c>
       <c r="C132" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D132">
         <v>5732</v>
       </c>
       <c r="E132" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F132" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G132" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4009,19 +4075,19 @@
         <v>46</v>
       </c>
       <c r="C133" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D133">
         <v>4374</v>
       </c>
       <c r="E133" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F133" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G133" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4032,19 +4098,19 @@
         <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D134">
         <v>7989</v>
       </c>
       <c r="E134" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F134" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G134" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4055,19 +4121,19 @@
         <v>47</v>
       </c>
       <c r="C135" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D135">
         <v>7146</v>
       </c>
       <c r="E135" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F135" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G135" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4078,19 +4144,19 @@
         <v>47</v>
       </c>
       <c r="C136" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D136">
         <v>6889</v>
       </c>
       <c r="E136" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F136" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G136" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4101,19 +4167,19 @@
         <v>47</v>
       </c>
       <c r="C137" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D137">
         <v>6037</v>
       </c>
       <c r="E137" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F137" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G137" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4124,19 +4190,19 @@
         <v>47</v>
       </c>
       <c r="C138" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D138">
         <v>4876</v>
       </c>
       <c r="E138" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F138" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G138" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4147,19 +4213,19 @@
         <v>47</v>
       </c>
       <c r="C139" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D139">
         <v>4281</v>
       </c>
       <c r="E139" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F139" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G139" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4170,19 +4236,19 @@
         <v>48</v>
       </c>
       <c r="C140" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D140">
         <v>6241</v>
       </c>
       <c r="E140" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F140" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G140" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4193,19 +4259,19 @@
         <v>48</v>
       </c>
       <c r="C141" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D141">
         <v>6088</v>
       </c>
       <c r="E141" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F141" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G141" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4216,19 +4282,19 @@
         <v>48</v>
       </c>
       <c r="C142" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D142">
         <v>5939</v>
       </c>
       <c r="E142" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F142" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G142" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4239,19 +4305,19 @@
         <v>49</v>
       </c>
       <c r="C143" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D143">
         <v>5967</v>
       </c>
       <c r="E143" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F143" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G143" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4262,19 +4328,19 @@
         <v>49</v>
       </c>
       <c r="C144" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D144">
         <v>5821</v>
       </c>
       <c r="E144" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F144" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G144" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4285,19 +4351,19 @@
         <v>49</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D145">
         <v>5569</v>
       </c>
       <c r="E145" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F145" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G145" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4308,19 +4374,19 @@
         <v>49</v>
       </c>
       <c r="C146" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D146">
         <v>4635</v>
       </c>
       <c r="E146" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F146" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G146" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4331,19 +4397,19 @@
         <v>49</v>
       </c>
       <c r="C147" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D147">
         <v>4206</v>
       </c>
       <c r="E147" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F147" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G147" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4354,19 +4420,19 @@
         <v>49</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D148">
         <v>4005</v>
       </c>
       <c r="E148" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F148" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G148" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4377,19 +4443,19 @@
         <v>50</v>
       </c>
       <c r="C149" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D149">
         <v>3600000</v>
       </c>
       <c r="E149" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F149" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G149" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4400,19 +4466,19 @@
         <v>50</v>
       </c>
       <c r="C150" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D150">
         <v>3228897</v>
       </c>
       <c r="E150" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F150" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G150" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4423,19 +4489,19 @@
         <v>50</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D151">
         <v>3070680</v>
       </c>
       <c r="E151" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F151" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G151" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4446,19 +4512,19 @@
         <v>51</v>
       </c>
       <c r="C152" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D152">
         <v>3900000</v>
       </c>
       <c r="E152" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F152" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G152" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4469,19 +4535,19 @@
         <v>51</v>
       </c>
       <c r="C153" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D153">
         <v>3625334</v>
       </c>
       <c r="E153" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F153" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G153" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4492,19 +4558,19 @@
         <v>52</v>
       </c>
       <c r="C154" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D154">
         <v>1214247</v>
       </c>
       <c r="E154" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F154" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G154" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4515,19 +4581,19 @@
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D155">
         <v>946995</v>
       </c>
       <c r="E155" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F155" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G155" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4538,19 +4604,19 @@
         <v>53</v>
       </c>
       <c r="C156" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D156">
         <v>617791</v>
       </c>
       <c r="E156" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F156" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G156" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4561,19 +4627,19 @@
         <v>54</v>
       </c>
       <c r="C157" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D157">
         <v>4493874</v>
       </c>
       <c r="E157" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F157" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G157" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4584,19 +4650,19 @@
         <v>54</v>
       </c>
       <c r="C158" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D158">
         <v>4142252</v>
       </c>
       <c r="E158" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G158" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4607,19 +4673,19 @@
         <v>55</v>
       </c>
       <c r="C159" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D159">
         <v>2346605</v>
       </c>
       <c r="E159" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F159" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G159" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4630,19 +4696,19 @@
         <v>55</v>
       </c>
       <c r="C160" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D160">
         <v>2055673</v>
       </c>
       <c r="E160" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F160" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G160" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4653,19 +4719,19 @@
         <v>56</v>
       </c>
       <c r="C161" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D161">
         <v>3800000</v>
       </c>
       <c r="E161" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F161" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G161" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4676,19 +4742,19 @@
         <v>56</v>
       </c>
       <c r="C162" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D162">
         <v>3226068</v>
       </c>
       <c r="E162" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F162" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G162" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4699,19 +4765,19 @@
         <v>56</v>
       </c>
       <c r="C163" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D163">
         <v>2729902</v>
       </c>
       <c r="E163" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F163" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G163" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4722,19 +4788,19 @@
         <v>56</v>
       </c>
       <c r="C164" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D164">
         <v>2502679</v>
       </c>
       <c r="E164" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F164" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G164" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4745,19 +4811,19 @@
         <v>57</v>
       </c>
       <c r="C165" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D165">
         <v>694217</v>
       </c>
       <c r="E165" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G165" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4768,19 +4834,19 @@
         <v>57</v>
       </c>
       <c r="C166" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D166">
         <v>607011</v>
       </c>
       <c r="E166" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F166" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G166" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4791,19 +4857,19 @@
         <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D167">
         <v>1296696</v>
       </c>
       <c r="E167" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F167" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G167" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4814,19 +4880,19 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D168">
         <v>1032188</v>
       </c>
       <c r="E168" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G168" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4837,19 +4903,19 @@
         <v>59</v>
       </c>
       <c r="C169" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D169">
         <v>1784133</v>
       </c>
       <c r="E169" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F169" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G169" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4860,19 +4926,19 @@
         <v>59</v>
       </c>
       <c r="C170" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D170">
         <v>1616174</v>
       </c>
       <c r="E170" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G170" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4883,19 +4949,19 @@
         <v>60</v>
       </c>
       <c r="C171" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D171">
         <v>476063</v>
       </c>
       <c r="E171" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G171" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4906,19 +4972,19 @@
         <v>61</v>
       </c>
       <c r="C172" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D172">
         <v>638283</v>
       </c>
       <c r="E172" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F172" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G172" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4929,19 +4995,19 @@
         <v>61</v>
       </c>
       <c r="C173" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D173">
         <v>591028</v>
       </c>
       <c r="E173" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F173" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G173" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4952,19 +5018,19 @@
         <v>61</v>
       </c>
       <c r="C174" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D174">
         <v>528207</v>
       </c>
       <c r="E174" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F174" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G174" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4975,19 +5041,19 @@
         <v>61</v>
       </c>
       <c r="C175" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D175">
         <v>515323</v>
       </c>
       <c r="E175" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F175" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G175" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4998,19 +5064,19 @@
         <v>62</v>
       </c>
       <c r="C176" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D176">
         <v>2800750</v>
       </c>
       <c r="E176" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F176" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G176" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5021,19 +5087,19 @@
         <v>62</v>
       </c>
       <c r="C177" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D177">
         <v>2200329</v>
       </c>
       <c r="E177" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F177" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G177" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5044,19 +5110,19 @@
         <v>62</v>
       </c>
       <c r="C178" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D178">
         <v>1739268</v>
       </c>
       <c r="E178" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F178" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G178" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5067,19 +5133,19 @@
         <v>62</v>
       </c>
       <c r="C179" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D179">
         <v>1647750</v>
       </c>
       <c r="E179" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F179" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G179" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5090,19 +5156,19 @@
         <v>63</v>
       </c>
       <c r="C180" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D180">
         <v>1770690</v>
       </c>
       <c r="E180" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F180" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G180" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5113,19 +5179,19 @@
         <v>63</v>
       </c>
       <c r="C181" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D181">
         <v>1706250</v>
       </c>
       <c r="E181" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F181" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="G181" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5136,19 +5202,19 @@
         <v>64</v>
       </c>
       <c r="C182" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D182">
         <v>588516</v>
       </c>
       <c r="E182" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F182" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G182" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5159,19 +5225,19 @@
         <v>64</v>
       </c>
       <c r="C183" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D183">
         <v>521625</v>
       </c>
       <c r="E183" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F183" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G183" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5182,19 +5248,19 @@
         <v>65</v>
       </c>
       <c r="C184" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D184">
         <v>1842750</v>
       </c>
       <c r="E184" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F184" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="G184" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5205,19 +5271,19 @@
         <v>66</v>
       </c>
       <c r="C185" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D185">
         <v>1145906</v>
       </c>
       <c r="E185" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F185" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G185" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5228,19 +5294,19 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D186">
         <v>993822</v>
       </c>
       <c r="E186" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F186" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G186" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5251,19 +5317,19 @@
         <v>67</v>
       </c>
       <c r="C187" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D187">
         <v>531136</v>
       </c>
       <c r="E187" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F187" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G187" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5274,19 +5340,19 @@
         <v>68</v>
       </c>
       <c r="C188" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D188">
         <v>654552</v>
       </c>
       <c r="E188" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F188" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5297,19 +5363,19 @@
         <v>69</v>
       </c>
       <c r="C189" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D189">
         <v>12940</v>
       </c>
       <c r="E189" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F189" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G189" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5320,19 +5386,19 @@
         <v>69</v>
       </c>
       <c r="C190" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D190">
         <v>12146</v>
       </c>
       <c r="E190" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F190" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G190" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5343,19 +5409,19 @@
         <v>69</v>
       </c>
       <c r="C191" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D191">
         <v>10344</v>
       </c>
       <c r="E191" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F191" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G191" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5366,19 +5432,19 @@
         <v>70</v>
       </c>
       <c r="C192" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D192">
         <v>13652</v>
       </c>
       <c r="E192" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F192" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G192" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5389,19 +5455,19 @@
         <v>70</v>
       </c>
       <c r="C193" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D193">
         <v>12238</v>
       </c>
       <c r="E193" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F193" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G193" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5412,19 +5478,19 @@
         <v>71</v>
       </c>
       <c r="C194" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D194">
         <v>23715</v>
       </c>
       <c r="E194" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F194" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G194" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5435,19 +5501,19 @@
         <v>71</v>
       </c>
       <c r="C195" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D195">
         <v>21449</v>
       </c>
       <c r="E195" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F195" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G195" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5458,19 +5524,19 @@
         <v>72</v>
       </c>
       <c r="C196" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D196">
         <v>14965</v>
       </c>
       <c r="E196" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F196" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G196" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5481,19 +5547,19 @@
         <v>72</v>
       </c>
       <c r="C197" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D197">
         <v>12435</v>
       </c>
       <c r="E197" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F197" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G197" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5504,19 +5570,19 @@
         <v>73</v>
       </c>
       <c r="C198" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D198">
         <v>15117</v>
       </c>
       <c r="E198" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F198" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G198" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5527,19 +5593,19 @@
         <v>73</v>
       </c>
       <c r="C199" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D199">
         <v>12483</v>
       </c>
       <c r="E199" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F199" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G199" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5550,19 +5616,19 @@
         <v>74</v>
       </c>
       <c r="C200" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D200">
         <v>23449</v>
       </c>
       <c r="E200" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F200" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G200" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5573,19 +5639,19 @@
         <v>74</v>
       </c>
       <c r="C201" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D201">
         <v>19050</v>
       </c>
       <c r="E201" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F201" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G201" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5596,19 +5662,19 @@
         <v>75</v>
       </c>
       <c r="C202" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D202">
         <v>30297</v>
       </c>
       <c r="E202" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F202" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G202" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5619,19 +5685,19 @@
         <v>75</v>
       </c>
       <c r="C203" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D203">
         <v>29558</v>
       </c>
       <c r="E203" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F203" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G203" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5642,19 +5708,19 @@
         <v>75</v>
       </c>
       <c r="C204" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D204">
         <v>22679</v>
       </c>
       <c r="E204" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F204" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G204" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5665,19 +5731,19 @@
         <v>76</v>
       </c>
       <c r="C205" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D205">
         <v>69220</v>
       </c>
       <c r="E205" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F205" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G205" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5688,19 +5754,19 @@
         <v>76</v>
       </c>
       <c r="C206" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D206">
         <v>67531</v>
       </c>
       <c r="E206" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F206" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G206" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5711,19 +5777,19 @@
         <v>76</v>
       </c>
       <c r="C207" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D207">
         <v>65883</v>
       </c>
       <c r="E207" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F207" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="G207" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5734,19 +5800,19 @@
         <v>76</v>
       </c>
       <c r="C208" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D208">
         <v>64276</v>
       </c>
       <c r="E208" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F208" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G208" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5757,19 +5823,19 @@
         <v>76</v>
       </c>
       <c r="C209" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D209">
         <v>62708</v>
       </c>
       <c r="E209" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F209" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G209" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5780,19 +5846,19 @@
         <v>76</v>
       </c>
       <c r="C210" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D210">
         <v>56940</v>
       </c>
       <c r="E210" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F210" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G210" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5803,19 +5869,19 @@
         <v>77</v>
       </c>
       <c r="C211" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D211">
         <v>23516</v>
       </c>
       <c r="E211" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F211" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G211" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5826,19 +5892,19 @@
         <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D212">
         <v>19107</v>
       </c>
       <c r="E212" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F212" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G212" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5849,19 +5915,19 @@
         <v>78</v>
       </c>
       <c r="C213" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D213">
         <v>69227</v>
       </c>
       <c r="E213" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F213" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G213" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5872,19 +5938,19 @@
         <v>78</v>
       </c>
       <c r="C214" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D214">
         <v>67538</v>
       </c>
       <c r="E214" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F214" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G214" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5895,19 +5961,19 @@
         <v>78</v>
       </c>
       <c r="C215" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D215">
         <v>58794</v>
       </c>
       <c r="E215" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F215" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G215" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5918,19 +5984,19 @@
         <v>78</v>
       </c>
       <c r="C216" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D216">
         <v>57172</v>
       </c>
       <c r="E216" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F216" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G216" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5941,19 +6007,19 @@
         <v>79</v>
       </c>
       <c r="C217" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D217">
         <v>121907</v>
       </c>
       <c r="E217" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F217" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G217" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5964,19 +6030,19 @@
         <v>80</v>
       </c>
       <c r="C218" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D218">
         <v>73953</v>
       </c>
       <c r="E218" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F218" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G218" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5987,19 +6053,19 @@
         <v>80</v>
       </c>
       <c r="C219" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D219">
         <v>67755</v>
       </c>
       <c r="E219" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F219" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G219" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6010,19 +6076,19 @@
         <v>80</v>
       </c>
       <c r="C220" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D220">
         <v>59243</v>
       </c>
       <c r="E220" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F220" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="G220" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6033,19 +6099,19 @@
         <v>81</v>
       </c>
       <c r="C221" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D221">
         <v>82917</v>
       </c>
       <c r="E221" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F221" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G221" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6056,19 +6122,19 @@
         <v>81</v>
       </c>
       <c r="C222" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D222">
         <v>80534</v>
       </c>
       <c r="E222" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F222" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G222" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6079,19 +6145,19 @@
         <v>82</v>
       </c>
       <c r="C223" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D223">
         <v>78233</v>
       </c>
       <c r="E223" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F223" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G223" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6102,19 +6168,19 @@
         <v>82</v>
       </c>
       <c r="C224" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D224">
         <v>68479</v>
       </c>
       <c r="E224" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F224" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G224" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6125,19 +6191,19 @@
         <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D225">
         <v>66808</v>
       </c>
       <c r="E225" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F225" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G225" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6148,19 +6214,19 @@
         <v>83</v>
       </c>
       <c r="C226" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D226">
         <v>102322</v>
       </c>
       <c r="E226" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F226" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G226" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6171,19 +6237,19 @@
         <v>83</v>
       </c>
       <c r="C227" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D227">
         <v>78592</v>
       </c>
       <c r="E227" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F227" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G227" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6194,19 +6260,19 @@
         <v>83</v>
       </c>
       <c r="C228" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D228">
         <v>76675</v>
       </c>
       <c r="E228" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F228" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G228" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6217,19 +6283,19 @@
         <v>83</v>
       </c>
       <c r="C229" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D229">
         <v>72791</v>
       </c>
       <c r="E229" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F229" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G229" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6240,19 +6306,19 @@
         <v>83</v>
       </c>
       <c r="C230" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D230">
         <v>68205</v>
       </c>
       <c r="E230" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F230" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="G230" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6263,19 +6329,19 @@
         <v>83</v>
       </c>
       <c r="C231" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D231">
         <v>66541</v>
       </c>
       <c r="E231" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F231" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="G231" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6286,19 +6352,19 @@
         <v>84</v>
       </c>
       <c r="C232" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D232">
         <v>122630</v>
       </c>
       <c r="E232" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F232" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="G232" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6309,19 +6375,19 @@
         <v>84</v>
       </c>
       <c r="C233" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D233">
         <v>116902</v>
       </c>
       <c r="E233" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F233" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="G233" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6332,19 +6398,19 @@
         <v>84</v>
       </c>
       <c r="C234" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D234">
         <v>107141</v>
       </c>
       <c r="E234" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F234" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="G234" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6355,19 +6421,19 @@
         <v>85</v>
       </c>
       <c r="C235" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D235">
         <v>19755</v>
       </c>
       <c r="E235" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F235" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G235" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6378,19 +6444,19 @@
         <v>85</v>
       </c>
       <c r="C236" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D236">
         <v>18974</v>
       </c>
       <c r="E236" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F236" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G236" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6401,19 +6467,19 @@
         <v>85</v>
       </c>
       <c r="C237" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D237">
         <v>18511</v>
       </c>
       <c r="E237" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F237" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="G237" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6424,19 +6490,19 @@
         <v>85</v>
       </c>
       <c r="C238" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D238">
         <v>16245</v>
       </c>
       <c r="E238" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F238" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G238" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6447,19 +6513,19 @@
         <v>85</v>
       </c>
       <c r="C239" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D239">
         <v>15235</v>
       </c>
       <c r="E239" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F239" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G239" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6470,19 +6536,19 @@
         <v>86</v>
       </c>
       <c r="C240" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D240">
         <v>21354</v>
       </c>
       <c r="E240" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F240" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G240" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6493,19 +6559,19 @@
         <v>86</v>
       </c>
       <c r="C241" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D241">
         <v>20443</v>
       </c>
       <c r="E241" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F241" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G241" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6516,19 +6582,1491 @@
         <v>86</v>
       </c>
       <c r="C242" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D242">
         <v>19315</v>
       </c>
       <c r="E242" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F242" t="s">
+        <v>193</v>
+      </c>
+      <c r="G242" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>11</v>
+      </c>
+      <c r="B243" t="s">
+        <v>86</v>
+      </c>
+      <c r="C243" t="s">
+        <v>171</v>
+      </c>
+      <c r="D243">
+        <v>16389</v>
+      </c>
+      <c r="E243" t="s">
+        <v>182</v>
+      </c>
+      <c r="F243" t="s">
+        <v>194</v>
+      </c>
+      <c r="G243" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" t="s">
+        <v>86</v>
+      </c>
+      <c r="C244" t="s">
+        <v>171</v>
+      </c>
+      <c r="D244">
+        <v>15482</v>
+      </c>
+      <c r="E244" t="s">
+        <v>182</v>
+      </c>
+      <c r="F244" t="s">
+        <v>184</v>
+      </c>
+      <c r="G244" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>11</v>
+      </c>
+      <c r="B245" t="s">
+        <v>87</v>
+      </c>
+      <c r="C245" t="s">
+        <v>172</v>
+      </c>
+      <c r="D245">
+        <v>28210</v>
+      </c>
+      <c r="E245" t="s">
+        <v>182</v>
+      </c>
+      <c r="F245" t="s">
+        <v>215</v>
+      </c>
+      <c r="G245" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>11</v>
+      </c>
+      <c r="B246" t="s">
+        <v>87</v>
+      </c>
+      <c r="C246" t="s">
+        <v>172</v>
+      </c>
+      <c r="D246">
+        <v>26539</v>
+      </c>
+      <c r="E246" t="s">
+        <v>182</v>
+      </c>
+      <c r="F246" t="s">
+        <v>189</v>
+      </c>
+      <c r="G246" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>11</v>
+      </c>
+      <c r="B247" t="s">
+        <v>87</v>
+      </c>
+      <c r="C247" t="s">
+        <v>172</v>
+      </c>
+      <c r="D247">
+        <v>23062</v>
+      </c>
+      <c r="E247" t="s">
+        <v>182</v>
+      </c>
+      <c r="F247" t="s">
+        <v>190</v>
+      </c>
+      <c r="G247" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>11</v>
+      </c>
+      <c r="B248" t="s">
+        <v>87</v>
+      </c>
+      <c r="C248" t="s">
+        <v>172</v>
+      </c>
+      <c r="D248">
+        <v>22499</v>
+      </c>
+      <c r="E248" t="s">
+        <v>182</v>
+      </c>
+      <c r="F248" t="s">
+        <v>191</v>
+      </c>
+      <c r="G248" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>11</v>
+      </c>
+      <c r="B249" t="s">
+        <v>87</v>
+      </c>
+      <c r="C249" t="s">
+        <v>172</v>
+      </c>
+      <c r="D249">
+        <v>20267</v>
+      </c>
+      <c r="E249" t="s">
+        <v>182</v>
+      </c>
+      <c r="F249" t="s">
+        <v>192</v>
+      </c>
+      <c r="G249" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>11</v>
+      </c>
+      <c r="B250" t="s">
+        <v>87</v>
+      </c>
+      <c r="C250" t="s">
+        <v>172</v>
+      </c>
+      <c r="D250">
+        <v>19467</v>
+      </c>
+      <c r="E250" t="s">
+        <v>182</v>
+      </c>
+      <c r="F250" t="s">
+        <v>193</v>
+      </c>
+      <c r="G250" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" t="s">
+        <v>87</v>
+      </c>
+      <c r="C251" t="s">
+        <v>172</v>
+      </c>
+      <c r="D251">
+        <v>17989</v>
+      </c>
+      <c r="E251" t="s">
+        <v>182</v>
+      </c>
+      <c r="F251" t="s">
+        <v>194</v>
+      </c>
+      <c r="G251" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>87</v>
+      </c>
+      <c r="C252" t="s">
+        <v>172</v>
+      </c>
+      <c r="D252">
+        <v>16792</v>
+      </c>
+      <c r="E252" t="s">
+        <v>182</v>
+      </c>
+      <c r="F252" t="s">
+        <v>184</v>
+      </c>
+      <c r="G252" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>11</v>
+      </c>
+      <c r="B253" t="s">
+        <v>88</v>
+      </c>
+      <c r="C253" t="s">
         <v>173</v>
       </c>
-      <c r="G242" t="s">
-        <v>195</v>
+      <c r="D253">
+        <v>27532</v>
+      </c>
+      <c r="E253" t="s">
+        <v>182</v>
+      </c>
+      <c r="F253" t="s">
+        <v>191</v>
+      </c>
+      <c r="G253" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>11</v>
+      </c>
+      <c r="B254" t="s">
+        <v>88</v>
+      </c>
+      <c r="C254" t="s">
+        <v>173</v>
+      </c>
+      <c r="D254">
+        <v>26860</v>
+      </c>
+      <c r="E254" t="s">
+        <v>182</v>
+      </c>
+      <c r="F254" t="s">
+        <v>192</v>
+      </c>
+      <c r="G254" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>11</v>
+      </c>
+      <c r="B255" t="s">
+        <v>88</v>
+      </c>
+      <c r="C255" t="s">
+        <v>173</v>
+      </c>
+      <c r="D255">
+        <v>25756</v>
+      </c>
+      <c r="E255" t="s">
+        <v>182</v>
+      </c>
+      <c r="F255" t="s">
+        <v>193</v>
+      </c>
+      <c r="G255" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>11</v>
+      </c>
+      <c r="B256" t="s">
+        <v>88</v>
+      </c>
+      <c r="C256" t="s">
+        <v>173</v>
+      </c>
+      <c r="D256">
+        <v>19966</v>
+      </c>
+      <c r="E256" t="s">
+        <v>182</v>
+      </c>
+      <c r="F256" t="s">
+        <v>194</v>
+      </c>
+      <c r="G256" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" t="s">
+        <v>88</v>
+      </c>
+      <c r="C257" t="s">
+        <v>173</v>
+      </c>
+      <c r="D257">
+        <v>17486</v>
+      </c>
+      <c r="E257" t="s">
+        <v>182</v>
+      </c>
+      <c r="F257" t="s">
+        <v>184</v>
+      </c>
+      <c r="G257" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" t="s">
+        <v>89</v>
+      </c>
+      <c r="C258" t="s">
+        <v>174</v>
+      </c>
+      <c r="D258">
+        <v>34924</v>
+      </c>
+      <c r="E258" t="s">
+        <v>182</v>
+      </c>
+      <c r="F258" t="s">
+        <v>216</v>
+      </c>
+      <c r="G258" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" t="s">
+        <v>175</v>
+      </c>
+      <c r="D259">
+        <v>23670</v>
+      </c>
+      <c r="E259" t="s">
+        <v>182</v>
+      </c>
+      <c r="F259" t="s">
+        <v>190</v>
+      </c>
+      <c r="G259" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>90</v>
+      </c>
+      <c r="C260" t="s">
+        <v>175</v>
+      </c>
+      <c r="D260">
+        <v>21307</v>
+      </c>
+      <c r="E260" t="s">
+        <v>182</v>
+      </c>
+      <c r="F260" t="s">
+        <v>191</v>
+      </c>
+      <c r="G260" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>11</v>
+      </c>
+      <c r="B261" t="s">
+        <v>90</v>
+      </c>
+      <c r="C261" t="s">
+        <v>175</v>
+      </c>
+      <c r="D261">
+        <v>20787</v>
+      </c>
+      <c r="E261" t="s">
+        <v>182</v>
+      </c>
+      <c r="F261" t="s">
+        <v>192</v>
+      </c>
+      <c r="G261" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>90</v>
+      </c>
+      <c r="C262" t="s">
+        <v>175</v>
+      </c>
+      <c r="D262">
+        <v>19054</v>
+      </c>
+      <c r="E262" t="s">
+        <v>182</v>
+      </c>
+      <c r="F262" t="s">
+        <v>193</v>
+      </c>
+      <c r="G262" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>90</v>
+      </c>
+      <c r="C263" t="s">
+        <v>175</v>
+      </c>
+      <c r="D263">
+        <v>18588</v>
+      </c>
+      <c r="E263" t="s">
+        <v>182</v>
+      </c>
+      <c r="F263" t="s">
+        <v>194</v>
+      </c>
+      <c r="G263" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" t="s">
+        <v>90</v>
+      </c>
+      <c r="C264" t="s">
+        <v>175</v>
+      </c>
+      <c r="D264">
+        <v>17671</v>
+      </c>
+      <c r="E264" t="s">
+        <v>182</v>
+      </c>
+      <c r="F264" t="s">
+        <v>184</v>
+      </c>
+      <c r="G264" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>90</v>
+      </c>
+      <c r="C265" t="s">
+        <v>175</v>
+      </c>
+      <c r="D265">
+        <v>17210</v>
+      </c>
+      <c r="E265" t="s">
+        <v>182</v>
+      </c>
+      <c r="F265" t="s">
+        <v>185</v>
+      </c>
+      <c r="G265" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>90</v>
+      </c>
+      <c r="C266" t="s">
+        <v>175</v>
+      </c>
+      <c r="D266">
+        <v>16522</v>
+      </c>
+      <c r="E266" t="s">
+        <v>182</v>
+      </c>
+      <c r="F266" t="s">
+        <v>186</v>
+      </c>
+      <c r="G266" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>91</v>
+      </c>
+      <c r="C267" t="s">
+        <v>176</v>
+      </c>
+      <c r="D267">
+        <v>24304</v>
+      </c>
+      <c r="E267" t="s">
+        <v>182</v>
+      </c>
+      <c r="F267" t="s">
+        <v>190</v>
+      </c>
+      <c r="G267" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>91</v>
+      </c>
+      <c r="C268" t="s">
+        <v>176</v>
+      </c>
+      <c r="D268">
+        <v>22150</v>
+      </c>
+      <c r="E268" t="s">
+        <v>182</v>
+      </c>
+      <c r="F268" t="s">
+        <v>191</v>
+      </c>
+      <c r="G268" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>91</v>
+      </c>
+      <c r="C269" t="s">
+        <v>176</v>
+      </c>
+      <c r="D269">
+        <v>20880</v>
+      </c>
+      <c r="E269" t="s">
+        <v>182</v>
+      </c>
+      <c r="F269" t="s">
+        <v>192</v>
+      </c>
+      <c r="G269" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>91</v>
+      </c>
+      <c r="C270" t="s">
+        <v>176</v>
+      </c>
+      <c r="D270">
+        <v>19384</v>
+      </c>
+      <c r="E270" t="s">
+        <v>182</v>
+      </c>
+      <c r="F270" t="s">
+        <v>193</v>
+      </c>
+      <c r="G270" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>91</v>
+      </c>
+      <c r="C271" t="s">
+        <v>176</v>
+      </c>
+      <c r="D271">
+        <v>18590</v>
+      </c>
+      <c r="E271" t="s">
+        <v>182</v>
+      </c>
+      <c r="F271" t="s">
+        <v>194</v>
+      </c>
+      <c r="G271" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" t="s">
+        <v>91</v>
+      </c>
+      <c r="C272" t="s">
+        <v>176</v>
+      </c>
+      <c r="D272">
+        <v>18054</v>
+      </c>
+      <c r="E272" t="s">
+        <v>182</v>
+      </c>
+      <c r="F272" t="s">
+        <v>184</v>
+      </c>
+      <c r="G272" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>11</v>
+      </c>
+      <c r="B273" t="s">
+        <v>91</v>
+      </c>
+      <c r="C273" t="s">
+        <v>176</v>
+      </c>
+      <c r="D273">
+        <v>17269</v>
+      </c>
+      <c r="E273" t="s">
+        <v>182</v>
+      </c>
+      <c r="F273" t="s">
+        <v>185</v>
+      </c>
+      <c r="G273" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>11</v>
+      </c>
+      <c r="B274" t="s">
+        <v>91</v>
+      </c>
+      <c r="C274" t="s">
+        <v>176</v>
+      </c>
+      <c r="D274">
+        <v>16685</v>
+      </c>
+      <c r="E274" t="s">
+        <v>182</v>
+      </c>
+      <c r="F274" t="s">
+        <v>186</v>
+      </c>
+      <c r="G274" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>92</v>
+      </c>
+      <c r="C275" t="s">
+        <v>177</v>
+      </c>
+      <c r="D275">
+        <v>29127</v>
+      </c>
+      <c r="E275" t="s">
+        <v>182</v>
+      </c>
+      <c r="F275" t="s">
+        <v>215</v>
+      </c>
+      <c r="G275" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>11</v>
+      </c>
+      <c r="B276" t="s">
+        <v>92</v>
+      </c>
+      <c r="C276" t="s">
+        <v>177</v>
+      </c>
+      <c r="D276">
+        <v>28389</v>
+      </c>
+      <c r="E276" t="s">
+        <v>182</v>
+      </c>
+      <c r="F276" t="s">
+        <v>189</v>
+      </c>
+      <c r="G276" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>11</v>
+      </c>
+      <c r="B277" t="s">
+        <v>92</v>
+      </c>
+      <c r="C277" t="s">
+        <v>177</v>
+      </c>
+      <c r="D277">
+        <v>27696</v>
+      </c>
+      <c r="E277" t="s">
+        <v>182</v>
+      </c>
+      <c r="F277" t="s">
+        <v>190</v>
+      </c>
+      <c r="G277" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" t="s">
+        <v>92</v>
+      </c>
+      <c r="C278" t="s">
+        <v>177</v>
+      </c>
+      <c r="D278">
+        <v>25740</v>
+      </c>
+      <c r="E278" t="s">
+        <v>182</v>
+      </c>
+      <c r="F278" t="s">
+        <v>191</v>
+      </c>
+      <c r="G278" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>11</v>
+      </c>
+      <c r="B279" t="s">
+        <v>92</v>
+      </c>
+      <c r="C279" t="s">
+        <v>177</v>
+      </c>
+      <c r="D279">
+        <v>22881</v>
+      </c>
+      <c r="E279" t="s">
+        <v>182</v>
+      </c>
+      <c r="F279" t="s">
+        <v>192</v>
+      </c>
+      <c r="G279" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" t="s">
+        <v>92</v>
+      </c>
+      <c r="C280" t="s">
+        <v>177</v>
+      </c>
+      <c r="D280">
+        <v>21584</v>
+      </c>
+      <c r="E280" t="s">
+        <v>182</v>
+      </c>
+      <c r="F280" t="s">
+        <v>193</v>
+      </c>
+      <c r="G280" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>11</v>
+      </c>
+      <c r="B281" t="s">
+        <v>92</v>
+      </c>
+      <c r="C281" t="s">
+        <v>177</v>
+      </c>
+      <c r="D281">
+        <v>19616</v>
+      </c>
+      <c r="E281" t="s">
+        <v>182</v>
+      </c>
+      <c r="F281" t="s">
+        <v>194</v>
+      </c>
+      <c r="G281" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>11</v>
+      </c>
+      <c r="B282" t="s">
+        <v>92</v>
+      </c>
+      <c r="C282" t="s">
+        <v>177</v>
+      </c>
+      <c r="D282">
+        <v>19137</v>
+      </c>
+      <c r="E282" t="s">
+        <v>182</v>
+      </c>
+      <c r="F282" t="s">
+        <v>184</v>
+      </c>
+      <c r="G282" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>11</v>
+      </c>
+      <c r="B283" t="s">
+        <v>92</v>
+      </c>
+      <c r="C283" t="s">
+        <v>177</v>
+      </c>
+      <c r="D283">
+        <v>17310</v>
+      </c>
+      <c r="E283" t="s">
+        <v>182</v>
+      </c>
+      <c r="F283" t="s">
+        <v>185</v>
+      </c>
+      <c r="G283" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B284" t="s">
+        <v>92</v>
+      </c>
+      <c r="C284" t="s">
+        <v>177</v>
+      </c>
+      <c r="D284">
+        <v>16711</v>
+      </c>
+      <c r="E284" t="s">
+        <v>182</v>
+      </c>
+      <c r="F284" t="s">
+        <v>186</v>
+      </c>
+      <c r="G284" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>11</v>
+      </c>
+      <c r="B285" t="s">
+        <v>93</v>
+      </c>
+      <c r="C285" t="s">
+        <v>178</v>
+      </c>
+      <c r="D285">
+        <v>26439</v>
+      </c>
+      <c r="E285" t="s">
+        <v>182</v>
+      </c>
+      <c r="F285" t="s">
+        <v>215</v>
+      </c>
+      <c r="G285" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>11</v>
+      </c>
+      <c r="B286" t="s">
+        <v>93</v>
+      </c>
+      <c r="C286" t="s">
+        <v>178</v>
+      </c>
+      <c r="D286">
+        <v>25794</v>
+      </c>
+      <c r="E286" t="s">
+        <v>182</v>
+      </c>
+      <c r="F286" t="s">
+        <v>189</v>
+      </c>
+      <c r="G286" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" t="s">
+        <v>93</v>
+      </c>
+      <c r="C287" t="s">
+        <v>178</v>
+      </c>
+      <c r="D287">
+        <v>23944</v>
+      </c>
+      <c r="E287" t="s">
+        <v>182</v>
+      </c>
+      <c r="F287" t="s">
+        <v>190</v>
+      </c>
+      <c r="G287" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" t="s">
+        <v>93</v>
+      </c>
+      <c r="C288" t="s">
+        <v>178</v>
+      </c>
+      <c r="D288">
+        <v>22551</v>
+      </c>
+      <c r="E288" t="s">
+        <v>182</v>
+      </c>
+      <c r="F288" t="s">
+        <v>191</v>
+      </c>
+      <c r="G288" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" t="s">
+        <v>93</v>
+      </c>
+      <c r="C289" t="s">
+        <v>178</v>
+      </c>
+      <c r="D289">
+        <v>21669</v>
+      </c>
+      <c r="E289" t="s">
+        <v>182</v>
+      </c>
+      <c r="F289" t="s">
+        <v>192</v>
+      </c>
+      <c r="G289" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>93</v>
+      </c>
+      <c r="C290" t="s">
+        <v>178</v>
+      </c>
+      <c r="D290">
+        <v>20926</v>
+      </c>
+      <c r="E290" t="s">
+        <v>182</v>
+      </c>
+      <c r="F290" t="s">
+        <v>193</v>
+      </c>
+      <c r="G290" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>93</v>
+      </c>
+      <c r="C291" t="s">
+        <v>178</v>
+      </c>
+      <c r="D291">
+        <v>18963</v>
+      </c>
+      <c r="E291" t="s">
+        <v>182</v>
+      </c>
+      <c r="F291" t="s">
+        <v>194</v>
+      </c>
+      <c r="G291" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" t="s">
+        <v>93</v>
+      </c>
+      <c r="C292" t="s">
+        <v>178</v>
+      </c>
+      <c r="D292">
+        <v>18051</v>
+      </c>
+      <c r="E292" t="s">
+        <v>182</v>
+      </c>
+      <c r="F292" t="s">
+        <v>184</v>
+      </c>
+      <c r="G292" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>93</v>
+      </c>
+      <c r="C293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D293">
+        <v>17265</v>
+      </c>
+      <c r="E293" t="s">
+        <v>182</v>
+      </c>
+      <c r="F293" t="s">
+        <v>185</v>
+      </c>
+      <c r="G293" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" t="s">
+        <v>93</v>
+      </c>
+      <c r="C294" t="s">
+        <v>178</v>
+      </c>
+      <c r="D294">
+        <v>16694</v>
+      </c>
+      <c r="E294" t="s">
+        <v>182</v>
+      </c>
+      <c r="F294" t="s">
+        <v>186</v>
+      </c>
+      <c r="G294" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" t="s">
+        <v>94</v>
+      </c>
+      <c r="C295" t="s">
+        <v>179</v>
+      </c>
+      <c r="D295">
+        <v>26714</v>
+      </c>
+      <c r="E295" t="s">
+        <v>182</v>
+      </c>
+      <c r="F295" t="s">
+        <v>191</v>
+      </c>
+      <c r="G295" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>11</v>
+      </c>
+      <c r="B296" t="s">
+        <v>94</v>
+      </c>
+      <c r="C296" t="s">
+        <v>179</v>
+      </c>
+      <c r="D296">
+        <v>21512</v>
+      </c>
+      <c r="E296" t="s">
+        <v>182</v>
+      </c>
+      <c r="F296" t="s">
+        <v>192</v>
+      </c>
+      <c r="G296" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>11</v>
+      </c>
+      <c r="B297" t="s">
+        <v>95</v>
+      </c>
+      <c r="C297" t="s">
+        <v>180</v>
+      </c>
+      <c r="D297">
+        <v>23754</v>
+      </c>
+      <c r="E297" t="s">
+        <v>182</v>
+      </c>
+      <c r="F297" t="s">
+        <v>190</v>
+      </c>
+      <c r="G297" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>11</v>
+      </c>
+      <c r="B298" t="s">
+        <v>95</v>
+      </c>
+      <c r="C298" t="s">
+        <v>180</v>
+      </c>
+      <c r="D298">
+        <v>22346</v>
+      </c>
+      <c r="E298" t="s">
+        <v>182</v>
+      </c>
+      <c r="F298" t="s">
+        <v>191</v>
+      </c>
+      <c r="G298" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>11</v>
+      </c>
+      <c r="B299" t="s">
+        <v>95</v>
+      </c>
+      <c r="C299" t="s">
+        <v>180</v>
+      </c>
+      <c r="D299">
+        <v>20556</v>
+      </c>
+      <c r="E299" t="s">
+        <v>182</v>
+      </c>
+      <c r="F299" t="s">
+        <v>192</v>
+      </c>
+      <c r="G299" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>11</v>
+      </c>
+      <c r="B300" t="s">
+        <v>95</v>
+      </c>
+      <c r="C300" t="s">
+        <v>180</v>
+      </c>
+      <c r="D300">
+        <v>17333</v>
+      </c>
+      <c r="E300" t="s">
+        <v>182</v>
+      </c>
+      <c r="F300" t="s">
+        <v>193</v>
+      </c>
+      <c r="G300" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
+        <v>95</v>
+      </c>
+      <c r="C301" t="s">
+        <v>180</v>
+      </c>
+      <c r="D301">
+        <v>16910</v>
+      </c>
+      <c r="E301" t="s">
+        <v>182</v>
+      </c>
+      <c r="F301" t="s">
+        <v>194</v>
+      </c>
+      <c r="G301" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>11</v>
+      </c>
+      <c r="B302" t="s">
+        <v>96</v>
+      </c>
+      <c r="C302" t="s">
+        <v>181</v>
+      </c>
+      <c r="D302">
+        <v>39909</v>
+      </c>
+      <c r="E302" t="s">
+        <v>182</v>
+      </c>
+      <c r="F302" t="s">
+        <v>215</v>
+      </c>
+      <c r="G302" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" t="s">
+        <v>96</v>
+      </c>
+      <c r="C303" t="s">
+        <v>181</v>
+      </c>
+      <c r="D303">
+        <v>34183</v>
+      </c>
+      <c r="E303" t="s">
+        <v>182</v>
+      </c>
+      <c r="F303" t="s">
+        <v>189</v>
+      </c>
+      <c r="G303" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>11</v>
+      </c>
+      <c r="B304" t="s">
+        <v>96</v>
+      </c>
+      <c r="C304" t="s">
+        <v>181</v>
+      </c>
+      <c r="D304">
+        <v>27982</v>
+      </c>
+      <c r="E304" t="s">
+        <v>182</v>
+      </c>
+      <c r="F304" t="s">
+        <v>190</v>
+      </c>
+      <c r="G304" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>11</v>
+      </c>
+      <c r="B305" t="s">
+        <v>96</v>
+      </c>
+      <c r="C305" t="s">
+        <v>181</v>
+      </c>
+      <c r="D305">
+        <v>27299</v>
+      </c>
+      <c r="E305" t="s">
+        <v>182</v>
+      </c>
+      <c r="F305" t="s">
+        <v>191</v>
+      </c>
+      <c r="G305" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>11</v>
+      </c>
+      <c r="B306" t="s">
+        <v>96</v>
+      </c>
+      <c r="C306" t="s">
+        <v>181</v>
+      </c>
+      <c r="D306">
+        <v>23657</v>
+      </c>
+      <c r="E306" t="s">
+        <v>182</v>
+      </c>
+      <c r="F306" t="s">
+        <v>192</v>
+      </c>
+      <c r="G306" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
